--- a/Tables/LFS_respondents_ISCO3d.xlsx
+++ b/Tables/LFS_respondents_ISCO3d.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="N2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="V2">
         <v>289</v>
@@ -520,7 +520,7 @@
         <v>51</v>
       </c>
       <c r="AB2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC2">
         <v>65</v>
@@ -536,7 +536,7 @@
         <v>82</v>
       </c>
       <c r="AB3">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +784,7 @@
         <v>45</v>
       </c>
       <c r="W8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X8">
         <v>1629</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="W9">
         <v>379</v>
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I10">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AB10">
-        <v>1346</v>
+        <v>1312</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -876,13 +876,13 @@
         <v>113</v>
       </c>
       <c r="L11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M11">
         <v>137</v>
       </c>
       <c r="N11">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O11">
         <v>57</v>
@@ -900,13 +900,13 @@
         <v>349</v>
       </c>
       <c r="T11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11">
         <v>69</v>
       </c>
       <c r="W11">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="X11">
         <v>1241</v>
@@ -918,7 +918,7 @@
         <v>392</v>
       </c>
       <c r="AA11">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AC11">
         <v>364</v>
@@ -939,19 +939,19 @@
         <v>1107</v>
       </c>
       <c r="D12">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="F12">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G12">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H12">
-        <v>10999</v>
+        <v>10981</v>
       </c>
       <c r="I12">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J12">
         <v>23</v>
@@ -960,13 +960,13 @@
         <v>174</v>
       </c>
       <c r="L12">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M12">
         <v>75</v>
       </c>
       <c r="N12">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="O12">
         <v>101</v>
@@ -975,22 +975,22 @@
         <v>146</v>
       </c>
       <c r="Q12">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R12">
-        <v>2229</v>
+        <v>2216</v>
       </c>
       <c r="S12">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="T12">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U12">
         <v>653</v>
       </c>
       <c r="W12">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="X12">
         <v>3935</v>
@@ -1002,7 +1002,7 @@
         <v>1492</v>
       </c>
       <c r="AA12">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AC12">
         <v>124</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="AB13">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="AC13">
         <v>38</v>
@@ -1051,19 +1051,19 @@
         <v>2408</v>
       </c>
       <c r="D14">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F14">
         <v>416</v>
       </c>
       <c r="G14">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H14">
-        <v>5957</v>
+        <v>5953</v>
       </c>
       <c r="I14">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="J14">
         <v>599</v>
@@ -1087,13 +1087,13 @@
         <v>1676</v>
       </c>
       <c r="Q14">
-        <v>3116</v>
+        <v>3108</v>
       </c>
       <c r="R14">
         <v>424</v>
       </c>
       <c r="S14">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="T14">
         <v>470</v>
@@ -1102,7 +1102,7 @@
         <v>433</v>
       </c>
       <c r="W14">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="X14">
         <v>5166</v>
@@ -1114,7 +1114,7 @@
         <v>442</v>
       </c>
       <c r="AA14">
-        <v>5790</v>
+        <v>5784</v>
       </c>
       <c r="AC14">
         <v>726</v>
@@ -1135,22 +1135,22 @@
         <v>3678</v>
       </c>
       <c r="D15">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F15">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G15">
         <v>216</v>
       </c>
       <c r="H15">
-        <v>3120</v>
+        <v>3114</v>
       </c>
       <c r="I15">
         <v>502</v>
       </c>
       <c r="J15">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K15">
         <v>353</v>
@@ -1171,22 +1171,22 @@
         <v>392</v>
       </c>
       <c r="Q15">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R15">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S15">
         <v>1313</v>
       </c>
       <c r="T15">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U15">
         <v>56</v>
       </c>
       <c r="W15">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="X15">
         <v>2184</v>
@@ -1198,7 +1198,7 @@
         <v>605</v>
       </c>
       <c r="AA15">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AC15">
         <v>739</v>
@@ -1220,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="AB16">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="AC16">
         <v>47</v>
@@ -1262,10 +1262,10 @@
         <v>39</v>
       </c>
       <c r="L17">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N17">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O17">
         <v>48</v>
@@ -1274,34 +1274,34 @@
         <v>526</v>
       </c>
       <c r="Q17">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="R17">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="S17">
         <v>173</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>66</v>
       </c>
       <c r="W17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X17">
         <v>199</v>
       </c>
       <c r="Y17">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z17">
         <v>319</v>
       </c>
       <c r="AA17">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AC17">
         <v>257</v>
@@ -1322,16 +1322,16 @@
         <v>2893</v>
       </c>
       <c r="D18">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F18">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G18">
         <v>747</v>
       </c>
       <c r="H18">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="I18">
         <v>839</v>
@@ -1349,7 +1349,7 @@
         <v>216</v>
       </c>
       <c r="N18">
-        <v>7798</v>
+        <v>7774</v>
       </c>
       <c r="O18">
         <v>648</v>
@@ -1358,13 +1358,13 @@
         <v>3196</v>
       </c>
       <c r="Q18">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="R18">
-        <v>6296</v>
+        <v>6257</v>
       </c>
       <c r="S18">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="T18">
         <v>79</v>
@@ -1373,19 +1373,19 @@
         <v>202</v>
       </c>
       <c r="W18">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="X18">
         <v>5717</v>
       </c>
       <c r="Y18">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="Z18">
         <v>1352</v>
       </c>
       <c r="AA18">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="AC18">
         <v>1858</v>
@@ -1406,7 +1406,7 @@
         <v>1013</v>
       </c>
       <c r="D19">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F19">
         <v>233</v>
@@ -1445,7 +1445,7 @@
         <v>291</v>
       </c>
       <c r="R19">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="S19">
         <v>205</v>
@@ -1469,7 +1469,7 @@
         <v>73</v>
       </c>
       <c r="AA19">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AC19">
         <v>236</v>
@@ -1490,7 +1490,7 @@
         <v>1723</v>
       </c>
       <c r="D20">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F20">
         <v>714</v>
@@ -1505,19 +1505,19 @@
         <v>1294</v>
       </c>
       <c r="J20">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K20">
         <v>670</v>
       </c>
       <c r="L20">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M20">
         <v>258</v>
       </c>
       <c r="N20">
-        <v>5035</v>
+        <v>5031</v>
       </c>
       <c r="O20">
         <v>230</v>
@@ -1529,7 +1529,7 @@
         <v>1850</v>
       </c>
       <c r="R20">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="S20">
         <v>1079</v>
@@ -1541,7 +1541,7 @@
         <v>267</v>
       </c>
       <c r="W20">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="X20">
         <v>2509</v>
@@ -1556,7 +1556,7 @@
         <v>4768</v>
       </c>
       <c r="AC20">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="21">
@@ -1569,7 +1569,7 @@
         <v>918</v>
       </c>
       <c r="AB21">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AC21">
         <v>35</v>
@@ -1590,70 +1590,70 @@
         <v>1837</v>
       </c>
       <c r="D22">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F22">
         <v>157</v>
       </c>
       <c r="G22">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22">
-        <v>2603</v>
+        <v>2564</v>
       </c>
       <c r="I22">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J22">
         <v>215</v>
       </c>
       <c r="K22">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="L22">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M22">
         <v>16</v>
       </c>
       <c r="N22">
-        <v>1618</v>
+        <v>1593</v>
       </c>
       <c r="O22">
         <v>332</v>
       </c>
       <c r="P22">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q22">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="R22">
-        <v>8380</v>
+        <v>8012</v>
       </c>
       <c r="S22">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U22">
         <v>36</v>
       </c>
       <c r="W22">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="X22">
         <v>689</v>
       </c>
       <c r="Y22">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="Z22">
         <v>321</v>
       </c>
       <c r="AA22">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AC22">
         <v>444</v>
@@ -1674,10 +1674,10 @@
         <v>552</v>
       </c>
       <c r="D23">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F23">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G23">
         <v>129</v>
@@ -1689,19 +1689,19 @@
         <v>437</v>
       </c>
       <c r="J23">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K23">
         <v>1440</v>
       </c>
       <c r="L23">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>2553</v>
+        <v>2527</v>
       </c>
       <c r="O23">
         <v>358</v>
@@ -1710,34 +1710,34 @@
         <v>1761</v>
       </c>
       <c r="Q23">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="R23">
-        <v>4640</v>
+        <v>4525</v>
       </c>
       <c r="S23">
         <v>735</v>
       </c>
       <c r="T23">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U23">
         <v>55</v>
       </c>
       <c r="W23">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="X23">
         <v>3005</v>
       </c>
       <c r="Y23">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="Z23">
         <v>1371</v>
       </c>
       <c r="AA23">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AC23">
         <v>1002</v>
@@ -1758,7 +1758,7 @@
         <v>627</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>91</v>
@@ -1767,25 +1767,25 @@
         <v>129</v>
       </c>
       <c r="H24">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I24">
         <v>127</v>
       </c>
       <c r="J24">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K24">
         <v>517</v>
       </c>
       <c r="L24">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="M24">
         <v>54</v>
       </c>
       <c r="N24">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="O24">
         <v>86</v>
@@ -1794,10 +1794,10 @@
         <v>746</v>
       </c>
       <c r="Q24">
-        <v>2760</v>
+        <v>2746</v>
       </c>
       <c r="R24">
-        <v>2408</v>
+        <v>2368</v>
       </c>
       <c r="S24">
         <v>190</v>
@@ -1815,13 +1815,13 @@
         <v>3672</v>
       </c>
       <c r="Y24">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Z24">
         <v>223</v>
       </c>
       <c r="AA24">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC24">
         <v>456</v>
@@ -1874,7 +1874,7 @@
         <v>24</v>
       </c>
       <c r="AB26">
-        <v>5218</v>
+        <v>5214</v>
       </c>
       <c r="AC26">
         <v>27</v>
@@ -1904,7 +1904,7 @@
         <v>89</v>
       </c>
       <c r="H27">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I27">
         <v>267</v>
@@ -1916,7 +1916,7 @@
         <v>438</v>
       </c>
       <c r="L27">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M27">
         <v>110</v>
@@ -1946,10 +1946,10 @@
         <v>51</v>
       </c>
       <c r="W27">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X27">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Y27">
         <v>158</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28">
         <v>39</v>
@@ -2024,7 +2024,7 @@
         <v>43</v>
       </c>
       <c r="T28">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U28">
         <v>3</v>
@@ -2060,40 +2060,40 @@
         </is>
       </c>
       <c r="C29">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D29">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F29">
         <v>243</v>
       </c>
       <c r="G29">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H29">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="I29">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J29">
         <v>275</v>
       </c>
       <c r="K29">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L29">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M29">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N29">
         <v>626</v>
       </c>
       <c r="O29">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P29">
         <v>1185</v>
@@ -2105,19 +2105,19 @@
         <v>1285</v>
       </c>
       <c r="S29">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T29">
         <v>187</v>
       </c>
       <c r="U29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W29">
         <v>560</v>
       </c>
       <c r="X29">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="Y29">
         <v>782</v>
@@ -2126,7 +2126,7 @@
         <v>1026</v>
       </c>
       <c r="AA29">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="AC29">
         <v>189</v>
@@ -2144,28 +2144,28 @@
         </is>
       </c>
       <c r="C30">
-        <v>4211</v>
+        <v>4207</v>
       </c>
       <c r="D30">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F30">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G30">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H30">
-        <v>13705</v>
+        <v>13692</v>
       </c>
       <c r="I30">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="J30">
         <v>719</v>
       </c>
       <c r="K30">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="L30">
         <v>1479</v>
@@ -2180,31 +2180,31 @@
         <v>596</v>
       </c>
       <c r="P30">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="Q30">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="R30">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="S30">
         <v>1569</v>
       </c>
       <c r="T30">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="U30">
         <v>175</v>
       </c>
       <c r="W30">
-        <v>2818</v>
+        <v>2813</v>
       </c>
       <c r="X30">
-        <v>6307</v>
+        <v>6298</v>
       </c>
       <c r="Y30">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="Z30">
         <v>7538</v>
@@ -2231,7 +2231,7 @@
         <v>1398</v>
       </c>
       <c r="D31">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F31">
         <v>264</v>
@@ -2240,10 +2240,10 @@
         <v>235</v>
       </c>
       <c r="H31">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="I31">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J31">
         <v>356</v>
@@ -2267,16 +2267,16 @@
         <v>1471</v>
       </c>
       <c r="Q31">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R31">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="S31">
         <v>399</v>
       </c>
       <c r="T31">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U31">
         <v>56</v>
@@ -2285,7 +2285,7 @@
         <v>424</v>
       </c>
       <c r="X31">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="Y31">
         <v>785</v>
@@ -2312,22 +2312,22 @@
         </is>
       </c>
       <c r="C32">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="D32">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F32">
         <v>583</v>
       </c>
       <c r="G32">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H32">
-        <v>6191</v>
+        <v>6185</v>
       </c>
       <c r="I32">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="J32">
         <v>526</v>
@@ -2336,52 +2336,52 @@
         <v>1168</v>
       </c>
       <c r="L32">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="M32">
         <v>520</v>
       </c>
       <c r="N32">
-        <v>2979</v>
+        <v>2965</v>
       </c>
       <c r="O32">
         <v>267</v>
       </c>
       <c r="P32">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="Q32">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="R32">
-        <v>6697</v>
+        <v>6680</v>
       </c>
       <c r="S32">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T32">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="U32">
         <v>104</v>
       </c>
       <c r="W32">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="X32">
-        <v>3002</v>
+        <v>2978</v>
       </c>
       <c r="Y32">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="Z32">
         <v>682</v>
       </c>
       <c r="AA32">
-        <v>3238</v>
+        <v>3233</v>
       </c>
       <c r="AC32">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>17</v>
       </c>
       <c r="AB33">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="34">
@@ -2421,7 +2421,7 @@
         <v>3875</v>
       </c>
       <c r="D34">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F34">
         <v>455</v>
@@ -2430,10 +2430,10 @@
         <v>589</v>
       </c>
       <c r="H34">
-        <v>6566</v>
+        <v>6563</v>
       </c>
       <c r="I34">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="J34">
         <v>355</v>
@@ -2448,34 +2448,34 @@
         <v>427</v>
       </c>
       <c r="N34">
-        <v>3989</v>
+        <v>3959</v>
       </c>
       <c r="O34">
         <v>384</v>
       </c>
       <c r="P34">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="Q34">
         <v>1275</v>
       </c>
       <c r="R34">
-        <v>8576</v>
+        <v>8573</v>
       </c>
       <c r="S34">
         <v>1067</v>
       </c>
       <c r="T34">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="U34">
         <v>132</v>
       </c>
       <c r="W34">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="X34">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="Y34">
         <v>1562</v>
@@ -2502,22 +2502,22 @@
         </is>
       </c>
       <c r="C35">
-        <v>7898</v>
+        <v>7892</v>
       </c>
       <c r="D35">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F35">
         <v>857</v>
       </c>
       <c r="G35">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H35">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I35">
-        <v>5687</v>
+        <v>5685</v>
       </c>
       <c r="J35">
         <v>395</v>
@@ -2526,7 +2526,7 @@
         <v>947</v>
       </c>
       <c r="L35">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="M35">
         <v>98</v>
@@ -2541,22 +2541,22 @@
         <v>472</v>
       </c>
       <c r="Q35">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="S35">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="T35">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U35">
         <v>172</v>
       </c>
       <c r="W35">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="X35">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="Y35">
         <v>2804</v>
@@ -2565,7 +2565,7 @@
         <v>4092</v>
       </c>
       <c r="AA35">
-        <v>8240</v>
+        <v>8239</v>
       </c>
       <c r="AC35">
         <v>449</v>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -2601,7 +2601,7 @@
         <v>120</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36">
         <v>17</v>
@@ -2628,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="W36">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y36">
         <v>49</v>
@@ -2706,16 +2706,16 @@
         <v>310</v>
       </c>
       <c r="D38">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>27</v>
       </c>
       <c r="G38">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I38">
         <v>239</v>
@@ -2733,7 +2733,7 @@
         <v>35</v>
       </c>
       <c r="N38">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O38">
         <v>72</v>
@@ -2742,10 +2742,10 @@
         <v>190</v>
       </c>
       <c r="Q38">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R38">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="S38">
         <v>112</v>
@@ -2760,13 +2760,13 @@
         <v>160</v>
       </c>
       <c r="X38">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y38">
         <v>212</v>
       </c>
       <c r="Z38">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA38">
         <v>293</v>
@@ -2787,19 +2787,19 @@
         </is>
       </c>
       <c r="C39">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="D39">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F39">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G39">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H39">
-        <v>8324</v>
+        <v>8316</v>
       </c>
       <c r="I39">
         <v>3237</v>
@@ -2808,16 +2808,16 @@
         <v>460</v>
       </c>
       <c r="K39">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="L39">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="M39">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N39">
-        <v>4597</v>
+        <v>4572</v>
       </c>
       <c r="O39">
         <v>228</v>
@@ -2829,22 +2829,22 @@
         <v>1798</v>
       </c>
       <c r="R39">
-        <v>4726</v>
+        <v>4653</v>
       </c>
       <c r="S39">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T39">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="U39">
         <v>98</v>
       </c>
       <c r="W39">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="X39">
-        <v>5035</v>
+        <v>5025</v>
       </c>
       <c r="Y39">
         <v>1837</v>
@@ -2853,10 +2853,10 @@
         <v>1802</v>
       </c>
       <c r="AA39">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="AC39">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40">
@@ -2878,7 +2878,7 @@
         <v>218</v>
       </c>
       <c r="AB40">
-        <v>7819</v>
+        <v>7817</v>
       </c>
       <c r="AC40">
         <v>84</v>
@@ -2908,10 +2908,10 @@
         <v>328</v>
       </c>
       <c r="H41">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="I41">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="J41">
         <v>410</v>
@@ -2920,7 +2920,7 @@
         <v>867</v>
       </c>
       <c r="L41">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="M41">
         <v>293</v>
@@ -2935,16 +2935,16 @@
         <v>1067</v>
       </c>
       <c r="Q41">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="R41">
-        <v>4028</v>
+        <v>4023</v>
       </c>
       <c r="S41">
         <v>530</v>
       </c>
       <c r="T41">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U41">
         <v>61</v>
@@ -2983,7 +2983,7 @@
         <v>901</v>
       </c>
       <c r="D42">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F42">
         <v>104</v>
@@ -2992,10 +2992,10 @@
         <v>305</v>
       </c>
       <c r="H42">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="I42">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J42">
         <v>130</v>
@@ -3010,7 +3010,7 @@
         <v>256</v>
       </c>
       <c r="N42">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="O42">
         <v>122</v>
@@ -3022,19 +3022,19 @@
         <v>127</v>
       </c>
       <c r="R42">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S42">
         <v>336</v>
       </c>
       <c r="T42">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U42">
         <v>76</v>
       </c>
       <c r="W42">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="X42">
         <v>1160</v>
@@ -3067,7 +3067,7 @@
         <v>5903</v>
       </c>
       <c r="D43">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="F43">
         <v>1416</v>
@@ -3076,7 +3076,7 @@
         <v>857</v>
       </c>
       <c r="H43">
-        <v>8699</v>
+        <v>8697</v>
       </c>
       <c r="I43">
         <v>1317</v>
@@ -3088,7 +3088,7 @@
         <v>4976</v>
       </c>
       <c r="L43">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="M43">
         <v>425</v>
@@ -3106,13 +3106,13 @@
         <v>3114</v>
       </c>
       <c r="R43">
-        <v>17450</v>
+        <v>17443</v>
       </c>
       <c r="S43">
         <v>2374</v>
       </c>
       <c r="T43">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U43">
         <v>219</v>
@@ -3130,7 +3130,7 @@
         <v>6543</v>
       </c>
       <c r="AA43">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="AC43">
         <v>1114</v>
@@ -3151,7 +3151,7 @@
         <v>5037</v>
       </c>
       <c r="D44">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="F44">
         <v>1381</v>
@@ -3160,10 +3160,10 @@
         <v>912</v>
       </c>
       <c r="H44">
-        <v>6271</v>
+        <v>6270</v>
       </c>
       <c r="I44">
-        <v>9862</v>
+        <v>9859</v>
       </c>
       <c r="J44">
         <v>1567</v>
@@ -3184,25 +3184,25 @@
         <v>1424</v>
       </c>
       <c r="P44">
-        <v>9605</v>
+        <v>9604</v>
       </c>
       <c r="Q44">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="R44">
-        <v>18101</v>
+        <v>18089</v>
       </c>
       <c r="S44">
         <v>1901</v>
       </c>
       <c r="T44">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="U44">
         <v>593</v>
       </c>
       <c r="W44">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="X44">
         <v>12503</v>
@@ -3235,31 +3235,31 @@
         <v>3729</v>
       </c>
       <c r="D45">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F45">
         <v>950</v>
       </c>
       <c r="G45">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H45">
-        <v>5073</v>
+        <v>5067</v>
       </c>
       <c r="I45">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="J45">
         <v>629</v>
       </c>
       <c r="K45">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="L45">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="M45">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N45">
         <v>1360</v>
@@ -3274,19 +3274,19 @@
         <v>1398</v>
       </c>
       <c r="R45">
-        <v>6988</v>
+        <v>6978</v>
       </c>
       <c r="S45">
         <v>1046</v>
       </c>
       <c r="T45">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="U45">
         <v>182</v>
       </c>
       <c r="W45">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="X45">
         <v>4705</v>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="E46">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -3323,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="AB46">
-        <v>5685</v>
+        <v>5671</v>
       </c>
       <c r="AC46">
         <v>23</v>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>3958</v>
+        <v>3953</v>
       </c>
       <c r="D47">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="F47">
         <v>971</v>
@@ -3353,25 +3353,25 @@
         <v>710</v>
       </c>
       <c r="H47">
-        <v>5728</v>
+        <v>5725</v>
       </c>
       <c r="I47">
-        <v>3668</v>
+        <v>3663</v>
       </c>
       <c r="J47">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="K47">
-        <v>3496</v>
+        <v>3488</v>
       </c>
       <c r="L47">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M47">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N47">
-        <v>4129</v>
+        <v>4124</v>
       </c>
       <c r="O47">
         <v>441</v>
@@ -3380,34 +3380,34 @@
         <v>2235</v>
       </c>
       <c r="Q47">
-        <v>4539</v>
+        <v>4527</v>
       </c>
       <c r="R47">
-        <v>6036</v>
+        <v>6026</v>
       </c>
       <c r="S47">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="T47">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="U47">
         <v>154</v>
       </c>
       <c r="W47">
-        <v>4517</v>
+        <v>4511</v>
       </c>
       <c r="X47">
-        <v>6667</v>
+        <v>6654</v>
       </c>
       <c r="Y47">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="Z47">
         <v>6777</v>
       </c>
       <c r="AA47">
-        <v>4161</v>
+        <v>4155</v>
       </c>
       <c r="AC47">
         <v>1402</v>
@@ -3425,22 +3425,22 @@
         </is>
       </c>
       <c r="C48">
-        <v>3556</v>
+        <v>3547</v>
       </c>
       <c r="D48">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F48">
         <v>714</v>
       </c>
       <c r="G48">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H48">
-        <v>10247</v>
+        <v>10240</v>
       </c>
       <c r="I48">
-        <v>6106</v>
+        <v>6102</v>
       </c>
       <c r="J48">
         <v>973</v>
@@ -3449,40 +3449,40 @@
         <v>916</v>
       </c>
       <c r="L48">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="M48">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N48">
-        <v>6269</v>
+        <v>6267</v>
       </c>
       <c r="O48">
         <v>345</v>
       </c>
       <c r="P48">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="Q48">
-        <v>3827</v>
+        <v>3823</v>
       </c>
       <c r="R48">
-        <v>6133</v>
+        <v>6127</v>
       </c>
       <c r="S48">
         <v>3374</v>
       </c>
       <c r="T48">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="U48">
         <v>511</v>
       </c>
       <c r="W48">
-        <v>8577</v>
+        <v>8570</v>
       </c>
       <c r="X48">
-        <v>10240</v>
+        <v>10224</v>
       </c>
       <c r="Y48">
         <v>1221</v>
@@ -3491,7 +3491,7 @@
         <v>3015</v>
       </c>
       <c r="AA48">
-        <v>11920</v>
+        <v>11916</v>
       </c>
       <c r="AC48">
         <v>357</v>
@@ -3509,19 +3509,19 @@
         </is>
       </c>
       <c r="C49">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="D49">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F49">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G49">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H49">
-        <v>7821</v>
+        <v>7820</v>
       </c>
       <c r="I49">
         <v>1753</v>
@@ -3533,7 +3533,7 @@
         <v>660</v>
       </c>
       <c r="L49">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M49">
         <v>931</v>
@@ -3545,13 +3545,13 @@
         <v>203</v>
       </c>
       <c r="P49">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="Q49">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="R49">
-        <v>4183</v>
+        <v>4170</v>
       </c>
       <c r="S49">
         <v>2829</v>
@@ -3563,10 +3563,10 @@
         <v>131</v>
       </c>
       <c r="W49">
-        <v>4283</v>
+        <v>4273</v>
       </c>
       <c r="X49">
-        <v>6064</v>
+        <v>6054</v>
       </c>
       <c r="Y49">
         <v>999</v>
@@ -3575,7 +3575,7 @@
         <v>1043</v>
       </c>
       <c r="AA49">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="AC49">
         <v>565</v>
@@ -3603,13 +3603,13 @@
         <v>90</v>
       </c>
       <c r="Q50">
-        <v>4530</v>
+        <v>4525</v>
       </c>
       <c r="W50">
         <v>40</v>
       </c>
       <c r="AB50">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="AC50">
         <v>50</v>
@@ -3627,28 +3627,28 @@
         </is>
       </c>
       <c r="C51">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="D51">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="F51">
         <v>791</v>
       </c>
       <c r="G51">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H51">
-        <v>11201</v>
+        <v>11197</v>
       </c>
       <c r="I51">
-        <v>5097</v>
+        <v>5093</v>
       </c>
       <c r="J51">
         <v>1011</v>
       </c>
       <c r="K51">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L51">
         <v>790</v>
@@ -3657,34 +3657,34 @@
         <v>1569</v>
       </c>
       <c r="N51">
-        <v>6526</v>
+        <v>6519</v>
       </c>
       <c r="O51">
         <v>417</v>
       </c>
       <c r="P51">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="Q51">
         <v>161</v>
       </c>
       <c r="R51">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="S51">
         <v>910</v>
       </c>
       <c r="T51">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="U51">
         <v>129</v>
       </c>
       <c r="W51">
-        <v>6427</v>
+        <v>6421</v>
       </c>
       <c r="X51">
-        <v>5908</v>
+        <v>5901</v>
       </c>
       <c r="Y51">
         <v>2063</v>
@@ -3693,7 +3693,7 @@
         <v>2293</v>
       </c>
       <c r="AA51">
-        <v>11435</v>
+        <v>11431</v>
       </c>
       <c r="AC51">
         <v>1439</v>
@@ -3714,10 +3714,10 @@
         <v>1436</v>
       </c>
       <c r="D52">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G52">
         <v>315</v>
@@ -3735,7 +3735,7 @@
         <v>119</v>
       </c>
       <c r="L52">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M52">
         <v>164</v>
@@ -3756,7 +3756,7 @@
         <v>536</v>
       </c>
       <c r="T52">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="U52">
         <v>103</v>
@@ -3765,10 +3765,10 @@
         <v>1922</v>
       </c>
       <c r="X52">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="Y52">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z52">
         <v>368</v>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E53">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I53">
         <v>54</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>4059</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="54">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="C54">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="D54">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F54">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="G54">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H54">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="I54">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="J54">
         <v>430</v>
@@ -3835,40 +3835,40 @@
         <v>2315</v>
       </c>
       <c r="L54">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="M54">
         <v>231</v>
       </c>
       <c r="N54">
-        <v>2611</v>
+        <v>2605</v>
       </c>
       <c r="O54">
         <v>534</v>
       </c>
       <c r="P54">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="Q54">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="R54">
-        <v>8114</v>
+        <v>8106</v>
       </c>
       <c r="S54">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T54">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="U54">
         <v>128</v>
       </c>
       <c r="W54">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="X54">
-        <v>3749</v>
+        <v>3745</v>
       </c>
       <c r="Y54">
         <v>1553</v>
@@ -3877,7 +3877,7 @@
         <v>2286</v>
       </c>
       <c r="AA54">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="AC54">
         <v>563</v>
@@ -3907,13 +3907,13 @@
         <v>38</v>
       </c>
       <c r="H55">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I55">
         <v>410</v>
       </c>
       <c r="J55">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K55">
         <v>59</v>
@@ -3943,7 +3943,7 @@
         <v>539</v>
       </c>
       <c r="T55">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U55">
         <v>50</v>
@@ -3961,10 +3961,10 @@
         <v>259</v>
       </c>
       <c r="AA55">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="AC55">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56">
@@ -3979,22 +3979,22 @@
         </is>
       </c>
       <c r="C56">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="D56">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="F56">
         <v>498</v>
       </c>
       <c r="G56">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H56">
-        <v>9628</v>
+        <v>9624</v>
       </c>
       <c r="I56">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="J56">
         <v>444</v>
@@ -4003,13 +4003,13 @@
         <v>2095</v>
       </c>
       <c r="L56">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="M56">
         <v>662</v>
       </c>
       <c r="N56">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="O56">
         <v>780</v>
@@ -4018,25 +4018,25 @@
         <v>2517</v>
       </c>
       <c r="Q56">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="R56">
-        <v>4590</v>
+        <v>4585</v>
       </c>
       <c r="S56">
         <v>1070</v>
       </c>
       <c r="T56">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="U56">
         <v>115</v>
       </c>
       <c r="W56">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="X56">
-        <v>3112</v>
+        <v>3101</v>
       </c>
       <c r="Y56">
         <v>2059</v>
@@ -4045,7 +4045,7 @@
         <v>5220</v>
       </c>
       <c r="AA56">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="AC56">
         <v>1864</v>
@@ -4063,22 +4063,22 @@
         </is>
       </c>
       <c r="C57">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="D57">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F57">
         <v>299</v>
       </c>
       <c r="G57">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H57">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="I57">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="J57">
         <v>339</v>
@@ -4087,13 +4087,13 @@
         <v>680</v>
       </c>
       <c r="L57">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M57">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N57">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="O57">
         <v>210</v>
@@ -4105,19 +4105,19 @@
         <v>637</v>
       </c>
       <c r="R57">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="S57">
         <v>350</v>
       </c>
       <c r="T57">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="U57">
         <v>49</v>
       </c>
       <c r="W57">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="X57">
         <v>1293</v>
@@ -4126,10 +4126,10 @@
         <v>426</v>
       </c>
       <c r="Z57">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AA57">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="AC57">
         <v>384</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D58">
         <v>389</v>
@@ -4156,13 +4156,13 @@
         <v>276</v>
       </c>
       <c r="G58">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H58">
-        <v>2879</v>
+        <v>2862</v>
       </c>
       <c r="I58">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J58">
         <v>257</v>
@@ -4171,49 +4171,49 @@
         <v>682</v>
       </c>
       <c r="L58">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M58">
         <v>285</v>
       </c>
       <c r="N58">
-        <v>2343</v>
+        <v>2332</v>
       </c>
       <c r="O58">
         <v>151</v>
       </c>
       <c r="P58">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="Q58">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="R58">
-        <v>1932</v>
+        <v>1922</v>
       </c>
       <c r="S58">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="T58">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="U58">
         <v>77</v>
       </c>
       <c r="W58">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="X58">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Y58">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z58">
         <v>513</v>
       </c>
       <c r="AA58">
-        <v>1933</v>
+        <v>1921</v>
       </c>
       <c r="AC58">
         <v>343</v>
@@ -4232,10 +4232,10 @@
         <v>6</v>
       </c>
       <c r="V59">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="W59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC59">
         <v>96</v>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="AB60">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="AC60">
         <v>18</v>
@@ -4281,64 +4281,64 @@
         </is>
       </c>
       <c r="C61">
-        <v>12903</v>
+        <v>12877</v>
       </c>
       <c r="D61">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F61">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="G61">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="H61">
-        <v>19587</v>
+        <v>19574</v>
       </c>
       <c r="I61">
-        <v>8260</v>
+        <v>8254</v>
       </c>
       <c r="J61">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K61">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L61">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="M61">
         <v>777</v>
       </c>
       <c r="N61">
-        <v>11865</v>
+        <v>11862</v>
       </c>
       <c r="O61">
         <v>974</v>
       </c>
       <c r="P61">
-        <v>4596</v>
+        <v>4592</v>
       </c>
       <c r="Q61">
         <v>2071</v>
       </c>
       <c r="R61">
-        <v>15231</v>
+        <v>15197</v>
       </c>
       <c r="S61">
         <v>848</v>
       </c>
       <c r="T61">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U61">
         <v>254</v>
       </c>
       <c r="W61">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="X61">
-        <v>11316</v>
+        <v>11285</v>
       </c>
       <c r="Y61">
         <v>2409</v>
@@ -4347,10 +4347,10 @@
         <v>3151</v>
       </c>
       <c r="AA61">
-        <v>11939</v>
+        <v>11935</v>
       </c>
       <c r="AC61">
-        <v>3903</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="62">
@@ -4365,19 +4365,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="D62">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F62">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G62">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="H62">
-        <v>11595</v>
+        <v>11581</v>
       </c>
       <c r="I62">
         <v>288</v>
@@ -4395,25 +4395,25 @@
         <v>466</v>
       </c>
       <c r="N62">
-        <v>10179</v>
+        <v>10148</v>
       </c>
       <c r="O62">
         <v>570</v>
       </c>
       <c r="P62">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="Q62">
         <v>454</v>
       </c>
       <c r="R62">
-        <v>6115</v>
+        <v>6094</v>
       </c>
       <c r="S62">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T62">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U62">
         <v>82</v>
@@ -4425,7 +4425,7 @@
         <v>1690</v>
       </c>
       <c r="Y62">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="Z62">
         <v>431</v>
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63">
         <v>135</v>
@@ -4488,16 +4488,16 @@
         <v>492</v>
       </c>
       <c r="Q63">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R63">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="S63">
         <v>325</v>
       </c>
       <c r="T63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U63">
         <v>52</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D64">
         <v>67</v>
@@ -4569,28 +4569,28 @@
         <v>126</v>
       </c>
       <c r="P64">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q64">
         <v>45</v>
       </c>
       <c r="R64">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="S64">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T64">
         <v>15</v>
       </c>
       <c r="U64">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W64">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X64">
-        <v>880</v>
+        <v>838</v>
       </c>
       <c r="Y64">
         <v>117</v>
@@ -4620,7 +4620,7 @@
         <v>362</v>
       </c>
       <c r="D65">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F65">
         <v>107</v>
@@ -4629,7 +4629,7 @@
         <v>47</v>
       </c>
       <c r="H65">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I65">
         <v>594</v>
@@ -4650,7 +4650,7 @@
         <v>434</v>
       </c>
       <c r="O65">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P65">
         <v>132</v>
@@ -4671,7 +4671,7 @@
         <v>60</v>
       </c>
       <c r="W65">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="X65">
         <v>532</v>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="AC66">
         <v>15</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="D67">
         <v>353</v>
@@ -4729,10 +4729,10 @@
         <v>134</v>
       </c>
       <c r="G67">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H67">
-        <v>4489</v>
+        <v>4484</v>
       </c>
       <c r="I67">
         <v>1228</v>
@@ -4750,7 +4750,7 @@
         <v>272</v>
       </c>
       <c r="N67">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="O67">
         <v>297</v>
@@ -4762,7 +4762,7 @@
         <v>564</v>
       </c>
       <c r="R67">
-        <v>2642</v>
+        <v>2625</v>
       </c>
       <c r="S67">
         <v>419</v>
@@ -4774,13 +4774,13 @@
         <v>50</v>
       </c>
       <c r="W67">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="X67">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="Y67">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Z67">
         <v>952</v>
@@ -4807,16 +4807,16 @@
         <v>179</v>
       </c>
       <c r="D68">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F68">
         <v>72</v>
       </c>
       <c r="G68">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H68">
-        <v>22800</v>
+        <v>22792</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -4831,28 +4831,28 @@
         <v>1292</v>
       </c>
       <c r="N68">
-        <v>8644</v>
+        <v>8640</v>
       </c>
       <c r="O68">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P68">
-        <v>4622</v>
+        <v>4614</v>
       </c>
       <c r="R68">
-        <v>13993</v>
+        <v>13989</v>
       </c>
       <c r="S68">
         <v>76</v>
       </c>
       <c r="T68">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="U68">
         <v>95</v>
       </c>
       <c r="W68">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Y68">
         <v>60</v>
@@ -4921,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="W69">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X69">
         <v>68</v>
@@ -4960,10 +4960,10 @@
         <v>23</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H70">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I70">
         <v>91</v>
@@ -4999,7 +4999,7 @@
         <v>29</v>
       </c>
       <c r="T70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U70">
         <v>9</v>
@@ -5008,7 +5008,7 @@
         <v>87</v>
       </c>
       <c r="X70">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y70">
         <v>94</v>
@@ -5035,25 +5035,25 @@
         </is>
       </c>
       <c r="C71">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="D71">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F71">
         <v>244</v>
       </c>
       <c r="G71">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H71">
-        <v>15739</v>
+        <v>15719</v>
       </c>
       <c r="I71">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J71">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K71">
         <v>808</v>
@@ -5068,16 +5068,16 @@
         <v>2864</v>
       </c>
       <c r="O71">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P71">
-        <v>3275</v>
+        <v>3267</v>
       </c>
       <c r="Q71">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="R71">
-        <v>11466</v>
+        <v>11434</v>
       </c>
       <c r="S71">
         <v>749</v>
@@ -5089,13 +5089,13 @@
         <v>90</v>
       </c>
       <c r="W71">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="X71">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="Y71">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Z71">
         <v>1676</v>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -5129,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="AB72">
-        <v>8019</v>
+        <v>8005</v>
       </c>
       <c r="AC72">
         <v>48</v>
@@ -5147,34 +5147,34 @@
         </is>
       </c>
       <c r="C73">
-        <v>5062</v>
+        <v>5034</v>
       </c>
       <c r="D73">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F73">
         <v>2796</v>
       </c>
       <c r="G73">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="H73">
-        <v>8491</v>
+        <v>8449</v>
       </c>
       <c r="I73">
-        <v>3781</v>
+        <v>3756</v>
       </c>
       <c r="J73">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K73">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="L73">
         <v>618</v>
       </c>
       <c r="M73">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="N73">
         <v>4445</v>
@@ -5183,40 +5183,40 @@
         <v>459</v>
       </c>
       <c r="P73">
-        <v>6441</v>
+        <v>6431</v>
       </c>
       <c r="Q73">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="R73">
-        <v>21487</v>
+        <v>21228</v>
       </c>
       <c r="S73">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="T73">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="U73">
         <v>339</v>
       </c>
       <c r="W73">
-        <v>2907</v>
+        <v>2876</v>
       </c>
       <c r="X73">
-        <v>9396</v>
+        <v>9301</v>
       </c>
       <c r="Y73">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="Z73">
         <v>4168</v>
       </c>
       <c r="AA73">
-        <v>5063</v>
+        <v>5052</v>
       </c>
       <c r="AC73">
-        <v>2277</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="74">
@@ -5231,73 +5231,73 @@
         </is>
       </c>
       <c r="C74">
-        <v>7143</v>
+        <v>7126</v>
       </c>
       <c r="D74">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F74">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="G74">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="H74">
-        <v>8713</v>
+        <v>8697</v>
       </c>
       <c r="I74">
-        <v>7689</v>
+        <v>7683</v>
       </c>
       <c r="J74">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K74">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="L74">
-        <v>3755</v>
+        <v>3746</v>
       </c>
       <c r="M74">
         <v>1096</v>
       </c>
       <c r="N74">
-        <v>9700</v>
+        <v>9691</v>
       </c>
       <c r="O74">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="P74">
-        <v>5570</v>
+        <v>5548</v>
       </c>
       <c r="Q74">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R74">
-        <v>17644</v>
+        <v>17517</v>
       </c>
       <c r="S74">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="T74">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="U74">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W74">
-        <v>3810</v>
+        <v>3805</v>
       </c>
       <c r="X74">
-        <v>8079</v>
+        <v>8013</v>
       </c>
       <c r="Y74">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="Z74">
         <v>3324</v>
       </c>
       <c r="AA74">
-        <v>10735</v>
+        <v>10727</v>
       </c>
       <c r="AC74">
         <v>2342</v>
@@ -5315,73 +5315,73 @@
         </is>
       </c>
       <c r="C75">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="D75">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F75">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G75">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H75">
-        <v>4852</v>
+        <v>4839</v>
       </c>
       <c r="I75">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="J75">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K75">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L75">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="M75">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N75">
-        <v>3562</v>
+        <v>3543</v>
       </c>
       <c r="O75">
         <v>119</v>
       </c>
       <c r="P75">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="Q75">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="R75">
-        <v>8401</v>
+        <v>8375</v>
       </c>
       <c r="S75">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T75">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="U75">
         <v>179</v>
       </c>
       <c r="W75">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="X75">
-        <v>4057</v>
+        <v>4020</v>
       </c>
       <c r="Y75">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Z75">
         <v>781</v>
       </c>
       <c r="AA75">
-        <v>4483</v>
+        <v>4478</v>
       </c>
       <c r="AC75">
         <v>825</v>
@@ -5399,76 +5399,76 @@
         </is>
       </c>
       <c r="C76">
-        <v>11455</v>
+        <v>11421</v>
       </c>
       <c r="D76">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="F76">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G76">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="H76">
-        <v>26516</v>
+        <v>26499</v>
       </c>
       <c r="I76">
-        <v>3727</v>
+        <v>3714</v>
       </c>
       <c r="J76">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="K76">
-        <v>1879</v>
+        <v>1852</v>
       </c>
       <c r="L76">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="M76">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N76">
-        <v>11967</v>
+        <v>11960</v>
       </c>
       <c r="O76">
         <v>277</v>
       </c>
       <c r="P76">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="Q76">
-        <v>2118</v>
+        <v>2109</v>
       </c>
       <c r="R76">
-        <v>7093</v>
+        <v>7037</v>
       </c>
       <c r="S76">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T76">
-        <v>2357</v>
+        <v>2337</v>
       </c>
       <c r="U76">
         <v>273</v>
       </c>
       <c r="W76">
-        <v>2974</v>
+        <v>2968</v>
       </c>
       <c r="X76">
-        <v>3033</v>
+        <v>3024</v>
       </c>
       <c r="Y76">
-        <v>4259</v>
+        <v>4251</v>
       </c>
       <c r="Z76">
         <v>746</v>
       </c>
       <c r="AA76">
-        <v>6760</v>
+        <v>6741</v>
       </c>
       <c r="AC76">
-        <v>1863</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="77">
@@ -5498,7 +5498,7 @@
         <v>6395</v>
       </c>
       <c r="I77">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J77">
         <v>511</v>
@@ -5522,7 +5522,7 @@
         <v>4887</v>
       </c>
       <c r="Q77">
-        <v>3694</v>
+        <v>3690</v>
       </c>
       <c r="R77">
         <v>2483</v>
@@ -5531,13 +5531,13 @@
         <v>994</v>
       </c>
       <c r="T77">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U77">
         <v>234</v>
       </c>
       <c r="W77">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="X77">
         <v>5120</v>
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="AB78">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AC78">
         <v>5</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>4378</v>
+        <v>4374</v>
       </c>
       <c r="D79">
         <v>800</v>
@@ -5601,16 +5601,16 @@
         <v>268</v>
       </c>
       <c r="H79">
-        <v>14061</v>
+        <v>14056</v>
       </c>
       <c r="I79">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J79">
         <v>365</v>
       </c>
       <c r="K79">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L79">
         <v>627</v>
@@ -5625,37 +5625,37 @@
         <v>55</v>
       </c>
       <c r="P79">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="Q79">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="R79">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="S79">
         <v>761</v>
       </c>
       <c r="T79">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="U79">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W79">
-        <v>6042</v>
+        <v>6039</v>
       </c>
       <c r="X79">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="Y79">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Z79">
         <v>731</v>
       </c>
       <c r="AA79">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="AC79">
         <v>255</v>
@@ -5673,37 +5673,37 @@
         </is>
       </c>
       <c r="C80">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D80">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80">
         <v>354</v>
       </c>
       <c r="G80">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H80">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="I80">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="J80">
         <v>283</v>
       </c>
       <c r="K80">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L80">
         <v>1054</v>
       </c>
       <c r="M80">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N80">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="O80">
         <v>133</v>
@@ -5712,34 +5712,34 @@
         <v>733</v>
       </c>
       <c r="Q80">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R80">
-        <v>2717</v>
+        <v>2708</v>
       </c>
       <c r="S80">
         <v>271</v>
       </c>
       <c r="T80">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="U80">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W80">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X80">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="Y80">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="Z80">
         <v>289</v>
       </c>
       <c r="AA80">
-        <v>2754</v>
+        <v>2748</v>
       </c>
       <c r="AC80">
         <v>255</v>
@@ -5757,37 +5757,37 @@
         </is>
       </c>
       <c r="C81">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="D81">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F81">
         <v>282</v>
       </c>
       <c r="G81">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H81">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="I81">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="J81">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K81">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="L81">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M81">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N81">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="O81">
         <v>152</v>
@@ -5796,34 +5796,34 @@
         <v>1130</v>
       </c>
       <c r="Q81">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="R81">
-        <v>1416</v>
+        <v>1389</v>
       </c>
       <c r="S81">
         <v>261</v>
       </c>
       <c r="T81">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U81">
         <v>97</v>
       </c>
       <c r="W81">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="X81">
-        <v>2482</v>
+        <v>2456</v>
       </c>
       <c r="Y81">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Z81">
         <v>391</v>
       </c>
       <c r="AA81">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="AC81">
         <v>523</v>
@@ -5842,7 +5842,7 @@
         <v>35</v>
       </c>
       <c r="AB82">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AC82">
         <v>90</v>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="D83">
         <v>275</v>
@@ -5875,7 +5875,7 @@
         <v>3258</v>
       </c>
       <c r="I83">
-        <v>2391</v>
+        <v>2384</v>
       </c>
       <c r="J83">
         <v>414</v>
@@ -5884,13 +5884,13 @@
         <v>688</v>
       </c>
       <c r="L83">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="M83">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N83">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="O83">
         <v>361</v>
@@ -5899,28 +5899,28 @@
         <v>1527</v>
       </c>
       <c r="Q83">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="R83">
-        <v>8382</v>
+        <v>8374</v>
       </c>
       <c r="S83">
         <v>337</v>
       </c>
       <c r="T83">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U83">
         <v>74</v>
       </c>
       <c r="W83">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="X83">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="Y83">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Z83">
         <v>1179</v>
@@ -5944,19 +5944,19 @@
         </is>
       </c>
       <c r="C84">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D84">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G84">
         <v>119</v>
       </c>
       <c r="H84">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I84">
         <v>551</v>
@@ -5977,7 +5977,7 @@
         <v>1254</v>
       </c>
       <c r="O84">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P84">
         <v>137</v>
@@ -5989,13 +5989,13 @@
         <v>92</v>
       </c>
       <c r="T84">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U84">
         <v>30</v>
       </c>
       <c r="W84">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="X84">
         <v>371</v>
@@ -6007,7 +6007,7 @@
         <v>530</v>
       </c>
       <c r="AA84">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AC84">
         <v>231</v>
@@ -6026,13 +6026,13 @@
         <v>3</v>
       </c>
       <c r="V85">
-        <v>3944</v>
+        <v>3937</v>
       </c>
       <c r="W85">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X85">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AC85">
         <v>427</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -6054,16 +6054,16 @@
         <v>5</v>
       </c>
       <c r="L86">
-        <v>2896</v>
+        <v>2867</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="W86">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AB86">
-        <v>3513</v>
+        <v>3488</v>
       </c>
       <c r="AC86">
         <v>11</v>
@@ -6081,76 +6081,76 @@
         </is>
       </c>
       <c r="C87">
-        <v>13492</v>
+        <v>13382</v>
       </c>
       <c r="D87">
-        <v>2897</v>
+        <v>2847</v>
       </c>
       <c r="F87">
-        <v>3189</v>
+        <v>3161</v>
       </c>
       <c r="G87">
-        <v>1338</v>
+        <v>1281</v>
       </c>
       <c r="H87">
-        <v>5731</v>
+        <v>5723</v>
       </c>
       <c r="I87">
-        <v>5705</v>
+        <v>5636</v>
       </c>
       <c r="J87">
         <v>34</v>
       </c>
       <c r="K87">
-        <v>10257</v>
+        <v>10100</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N87">
-        <v>8935</v>
+        <v>8934</v>
       </c>
       <c r="O87">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P87">
-        <v>6698</v>
+        <v>6642</v>
       </c>
       <c r="Q87">
         <v>1759</v>
       </c>
       <c r="R87">
-        <v>33827</v>
+        <v>33371</v>
       </c>
       <c r="S87">
         <v>405</v>
       </c>
       <c r="T87">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="U87">
         <v>1</v>
       </c>
       <c r="W87">
-        <v>2664</v>
+        <v>2615</v>
       </c>
       <c r="X87">
-        <v>7298</v>
+        <v>7156</v>
       </c>
       <c r="Y87">
-        <v>7687</v>
+        <v>7649</v>
       </c>
       <c r="Z87">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="AA87">
-        <v>2912</v>
+        <v>2878</v>
       </c>
       <c r="AC87">
-        <v>3727</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="88">
@@ -6165,73 +6165,73 @@
         </is>
       </c>
       <c r="C88">
-        <v>3508</v>
+        <v>3501</v>
       </c>
       <c r="D88">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F88">
         <v>135</v>
       </c>
       <c r="G88">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H88">
-        <v>22965</v>
+        <v>22801</v>
       </c>
       <c r="I88">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="J88">
         <v>18</v>
       </c>
       <c r="K88">
-        <v>2160</v>
+        <v>2081</v>
       </c>
       <c r="L88">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="M88">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="N88">
-        <v>7215</v>
+        <v>7092</v>
       </c>
       <c r="O88">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P88">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q88">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="R88">
-        <v>11932</v>
+        <v>11541</v>
       </c>
       <c r="S88">
         <v>291</v>
       </c>
       <c r="T88">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="U88">
         <v>53</v>
       </c>
       <c r="W88">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="X88">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="Y88">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="Z88">
         <v>1303</v>
       </c>
       <c r="AA88">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC88">
         <v>187</v>
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D89">
         <v>29</v>
@@ -6261,7 +6261,7 @@
         <v>75</v>
       </c>
       <c r="H89">
-        <v>3021</v>
+        <v>2946</v>
       </c>
       <c r="I89">
         <v>92</v>
@@ -6273,7 +6273,7 @@
         <v>403</v>
       </c>
       <c r="L89">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M89">
         <v>10</v>
@@ -6288,10 +6288,10 @@
         <v>479</v>
       </c>
       <c r="Q89">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R89">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="S89">
         <v>183</v>
@@ -6303,13 +6303,13 @@
         <v>80</v>
       </c>
       <c r="W89">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X89">
         <v>127</v>
       </c>
       <c r="Y89">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z89">
         <v>995</v>
@@ -6331,7 +6331,7 @@
         <v>805</v>
       </c>
       <c r="AB90">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="AC90">
         <v>77</v>
@@ -6352,16 +6352,16 @@
         <v>2263</v>
       </c>
       <c r="D91">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F91">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G91">
         <v>232</v>
       </c>
       <c r="H91">
-        <v>6789</v>
+        <v>6780</v>
       </c>
       <c r="I91">
         <v>157</v>
@@ -6370,10 +6370,10 @@
         <v>166</v>
       </c>
       <c r="K91">
-        <v>1779</v>
+        <v>1737</v>
       </c>
       <c r="L91">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M91">
         <v>213</v>
@@ -6385,13 +6385,13 @@
         <v>451</v>
       </c>
       <c r="P91">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="Q91">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="R91">
-        <v>5446</v>
+        <v>5424</v>
       </c>
       <c r="S91">
         <v>477</v>
@@ -6403,13 +6403,13 @@
         <v>87</v>
       </c>
       <c r="W91">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X91">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="Y91">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z91">
         <v>1297</v>
@@ -6433,31 +6433,31 @@
         </is>
       </c>
       <c r="C92">
-        <v>3180</v>
+        <v>3161</v>
       </c>
       <c r="D92">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F92">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="G92">
         <v>519</v>
       </c>
       <c r="H92">
-        <v>4927</v>
+        <v>4911</v>
       </c>
       <c r="I92">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="J92">
         <v>606</v>
       </c>
       <c r="K92">
-        <v>3340</v>
+        <v>3133</v>
       </c>
       <c r="L92">
-        <v>7297</v>
+        <v>7262</v>
       </c>
       <c r="M92">
         <v>428</v>
@@ -6466,43 +6466,43 @@
         <v>3731</v>
       </c>
       <c r="O92">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P92">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="Q92">
-        <v>2964</v>
+        <v>2953</v>
       </c>
       <c r="R92">
-        <v>11874</v>
+        <v>11772</v>
       </c>
       <c r="S92">
         <v>562</v>
       </c>
       <c r="T92">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="U92">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W92">
-        <v>4101</v>
+        <v>4093</v>
       </c>
       <c r="X92">
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="Y92">
-        <v>3545</v>
+        <v>3524</v>
       </c>
       <c r="Z92">
         <v>1189</v>
       </c>
       <c r="AA92">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="AC92">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93">
@@ -6512,13 +6512,13 @@
         </is>
       </c>
       <c r="E93">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="W93">
         <v>2</v>
       </c>
       <c r="AB93">
-        <v>3755</v>
+        <v>3751</v>
       </c>
       <c r="AC93">
         <v>20</v>
@@ -6536,76 +6536,76 @@
         </is>
       </c>
       <c r="C94">
-        <v>5346</v>
+        <v>5306</v>
       </c>
       <c r="D94">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="F94">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="G94">
-        <v>1810</v>
+        <v>1765</v>
       </c>
       <c r="H94">
-        <v>7319</v>
+        <v>7312</v>
       </c>
       <c r="I94">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J94">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K94">
-        <v>1559</v>
+        <v>1504</v>
       </c>
       <c r="L94">
-        <v>2415</v>
+        <v>2395</v>
       </c>
       <c r="M94">
         <v>357</v>
       </c>
       <c r="N94">
-        <v>7998</v>
+        <v>7989</v>
       </c>
       <c r="O94">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="P94">
-        <v>4282</v>
+        <v>4242</v>
       </c>
       <c r="Q94">
-        <v>3413</v>
+        <v>3332</v>
       </c>
       <c r="R94">
-        <v>9790</v>
+        <v>9546</v>
       </c>
       <c r="S94">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="T94">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="U94">
         <v>186</v>
       </c>
       <c r="W94">
-        <v>3489</v>
+        <v>3399</v>
       </c>
       <c r="X94">
-        <v>2296</v>
+        <v>2263</v>
       </c>
       <c r="Y94">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="Z94">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AA94">
-        <v>4695</v>
+        <v>4650</v>
       </c>
       <c r="AC94">
-        <v>2524</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="95">
@@ -6620,73 +6620,73 @@
         </is>
       </c>
       <c r="C95">
-        <v>4589</v>
+        <v>4579</v>
       </c>
       <c r="D95">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F95">
         <v>846</v>
       </c>
       <c r="G95">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H95">
-        <v>31782</v>
+        <v>31752</v>
       </c>
       <c r="I95">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J95">
         <v>1316</v>
       </c>
       <c r="K95">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="L95">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="M95">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N95">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="O95">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P95">
         <v>5477</v>
       </c>
       <c r="Q95">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="R95">
-        <v>12313</v>
+        <v>12265</v>
       </c>
       <c r="S95">
         <v>1167</v>
       </c>
       <c r="T95">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="U95">
         <v>289</v>
       </c>
       <c r="W95">
-        <v>4479</v>
+        <v>4473</v>
       </c>
       <c r="X95">
-        <v>8922</v>
+        <v>8916</v>
       </c>
       <c r="Y95">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="Z95">
         <v>4141</v>
       </c>
       <c r="AA95">
-        <v>5406</v>
+        <v>5398</v>
       </c>
       <c r="AC95">
         <v>3824</v>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="E96">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="W96">
         <v>2</v>
       </c>
       <c r="AB96">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AC96">
         <v>13</v>
@@ -6723,28 +6723,28 @@
         </is>
       </c>
       <c r="C97">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D97">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="F97">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G97">
         <v>618</v>
       </c>
       <c r="H97">
-        <v>6852</v>
+        <v>6851</v>
       </c>
       <c r="I97">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="J97">
         <v>422</v>
       </c>
       <c r="K97">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="L97">
         <v>693</v>
@@ -6759,40 +6759,40 @@
         <v>431</v>
       </c>
       <c r="P97">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="Q97">
-        <v>5947</v>
+        <v>5834</v>
       </c>
       <c r="R97">
-        <v>7193</v>
+        <v>7166</v>
       </c>
       <c r="S97">
         <v>1034</v>
       </c>
       <c r="T97">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U97">
         <v>72</v>
       </c>
       <c r="W97">
-        <v>2732</v>
+        <v>2723</v>
       </c>
       <c r="X97">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="Y97">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z97">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="AA97">
         <v>1993</v>
       </c>
       <c r="AC97">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="98">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="V98">
-        <v>6666</v>
+        <v>6653</v>
       </c>
       <c r="X98">
         <v>6</v>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>2525</v>
+        <v>2509</v>
       </c>
       <c r="W99">
         <v>8</v>
       </c>
       <c r="AB99">
-        <v>5270</v>
+        <v>5177</v>
       </c>
       <c r="AC99">
         <v>3</v>
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D100">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F100">
         <v>58</v>
@@ -6866,10 +6866,10 @@
         <v>103</v>
       </c>
       <c r="K100">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L100">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M100">
         <v>101</v>
@@ -6887,13 +6887,13 @@
         <v>508</v>
       </c>
       <c r="R100">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="S100">
         <v>114</v>
       </c>
       <c r="T100">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U100">
         <v>48</v>
@@ -6929,40 +6929,40 @@
         </is>
       </c>
       <c r="C101">
-        <v>4345</v>
+        <v>4307</v>
       </c>
       <c r="D101">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F101">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="G101">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="H101">
-        <v>4279</v>
+        <v>4261</v>
       </c>
       <c r="I101">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="J101">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K101">
-        <v>3198</v>
+        <v>2883</v>
       </c>
       <c r="L101">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="M101">
         <v>597</v>
       </c>
       <c r="N101">
-        <v>4202</v>
+        <v>4136</v>
       </c>
       <c r="O101">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="P101">
         <v>3061</v>
@@ -6971,28 +6971,28 @@
         <v>308</v>
       </c>
       <c r="R101">
-        <v>10770</v>
+        <v>10454</v>
       </c>
       <c r="S101">
         <v>1458</v>
       </c>
       <c r="T101">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="U101">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W101">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="X101">
-        <v>3431</v>
+        <v>3415</v>
       </c>
       <c r="Y101">
-        <v>2722</v>
+        <v>2708</v>
       </c>
       <c r="Z101">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="AA101">
         <v>2662</v>
@@ -7013,73 +7013,73 @@
         </is>
       </c>
       <c r="C102">
-        <v>5605</v>
+        <v>5548</v>
       </c>
       <c r="D102">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="F102">
-        <v>1614</v>
+        <v>1591</v>
       </c>
       <c r="G102">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H102">
-        <v>8303</v>
+        <v>8228</v>
       </c>
       <c r="I102">
-        <v>2175</v>
+        <v>2166</v>
       </c>
       <c r="J102">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K102">
-        <v>9369</v>
+        <v>8374</v>
       </c>
       <c r="L102">
-        <v>4105</v>
+        <v>4068</v>
       </c>
       <c r="M102">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N102">
-        <v>3629</v>
+        <v>3597</v>
       </c>
       <c r="O102">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="P102">
-        <v>3863</v>
+        <v>3847</v>
       </c>
       <c r="Q102">
-        <v>3889</v>
+        <v>3867</v>
       </c>
       <c r="R102">
-        <v>16389</v>
+        <v>15681</v>
       </c>
       <c r="S102">
         <v>680</v>
       </c>
       <c r="T102">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="U102">
         <v>114</v>
       </c>
       <c r="W102">
-        <v>4651</v>
+        <v>4642</v>
       </c>
       <c r="X102">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="Y102">
-        <v>3716</v>
+        <v>3641</v>
       </c>
       <c r="Z102">
         <v>3089</v>
       </c>
       <c r="AA102">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="AC102">
         <v>1896</v>
@@ -7097,19 +7097,19 @@
         </is>
       </c>
       <c r="C103">
-        <v>3571</v>
+        <v>3559</v>
       </c>
       <c r="D103">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F103">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G103">
         <v>663</v>
       </c>
       <c r="H103">
-        <v>5535</v>
+        <v>5525</v>
       </c>
       <c r="I103">
         <v>1207</v>
@@ -7118,49 +7118,49 @@
         <v>501</v>
       </c>
       <c r="K103">
-        <v>2329</v>
+        <v>2318</v>
       </c>
       <c r="L103">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="M103">
         <v>288</v>
       </c>
       <c r="N103">
-        <v>3845</v>
+        <v>3831</v>
       </c>
       <c r="O103">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P103">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="Q103">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="R103">
-        <v>8885</v>
+        <v>8701</v>
       </c>
       <c r="S103">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T103">
         <v>252</v>
       </c>
       <c r="U103">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W103">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="X103">
-        <v>3170</v>
+        <v>3163</v>
       </c>
       <c r="Y103">
         <v>2307</v>
       </c>
       <c r="Z103">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="AA103">
         <v>1483</v>
@@ -7181,52 +7181,52 @@
         </is>
       </c>
       <c r="C104">
-        <v>4741</v>
+        <v>4671</v>
       </c>
       <c r="D104">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F104">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G104">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="H104">
-        <v>10201</v>
+        <v>10100</v>
       </c>
       <c r="I104">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="J104">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K104">
-        <v>856</v>
+        <v>815</v>
       </c>
       <c r="L104">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="M104">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N104">
-        <v>1677</v>
+        <v>1647</v>
       </c>
       <c r="O104">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P104">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="Q104">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="R104">
-        <v>2343</v>
+        <v>2177</v>
       </c>
       <c r="S104">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T104">
         <v>226</v>
@@ -7235,10 +7235,10 @@
         <v>221</v>
       </c>
       <c r="W104">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="X104">
-        <v>2868</v>
+        <v>2851</v>
       </c>
       <c r="Y104">
         <v>541</v>
@@ -7247,7 +7247,7 @@
         <v>2303</v>
       </c>
       <c r="AA104">
-        <v>3464</v>
+        <v>3450</v>
       </c>
       <c r="AC104">
         <v>2300</v>
@@ -7265,73 +7265,73 @@
         </is>
       </c>
       <c r="C105">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="D105">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F105">
         <v>163</v>
       </c>
       <c r="G105">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H105">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="I105">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J105">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K105">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="L105">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M105">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N105">
-        <v>3817</v>
+        <v>3799</v>
       </c>
       <c r="O105">
         <v>137</v>
       </c>
       <c r="P105">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Q105">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="R105">
-        <v>1168</v>
+        <v>1145</v>
       </c>
       <c r="S105">
         <v>603</v>
       </c>
       <c r="T105">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U105">
         <v>89</v>
       </c>
       <c r="W105">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="X105">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Y105">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z105">
         <v>699</v>
       </c>
       <c r="AA105">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="AC105">
         <v>207</v>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="E106">
-        <v>5526</v>
+        <v>5420</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>13</v>
       </c>
       <c r="AB106">
-        <v>7063</v>
+        <v>7047</v>
       </c>
       <c r="AC106">
         <v>217</v>
@@ -7371,19 +7371,19 @@
         </is>
       </c>
       <c r="C107">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F107">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G107">
         <v>33</v>
       </c>
       <c r="H107">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I107">
         <v>6</v>
@@ -7392,55 +7392,55 @@
         <v>93</v>
       </c>
       <c r="K107">
-        <v>1106</v>
+        <v>904</v>
       </c>
       <c r="L107">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="M107">
         <v>30</v>
       </c>
       <c r="N107">
-        <v>900</v>
+        <v>859</v>
       </c>
       <c r="O107">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P107">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>32</v>
       </c>
       <c r="R107">
-        <v>602</v>
+        <v>559</v>
       </c>
       <c r="S107">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="T107">
         <v>6</v>
       </c>
       <c r="U107">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W107">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X107">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="Y107">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="Z107">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="AA107">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AC107">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108">
@@ -7455,76 +7455,76 @@
         </is>
       </c>
       <c r="C108">
-        <v>23697</v>
+        <v>23604</v>
       </c>
       <c r="D108">
-        <v>2916</v>
+        <v>2849</v>
       </c>
       <c r="F108">
-        <v>4194</v>
+        <v>4116</v>
       </c>
       <c r="G108">
-        <v>3223</v>
+        <v>3180</v>
       </c>
       <c r="H108">
-        <v>41922</v>
+        <v>41779</v>
       </c>
       <c r="I108">
-        <v>7765</v>
+        <v>7733</v>
       </c>
       <c r="J108">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="K108">
-        <v>23557</v>
+        <v>21834</v>
       </c>
       <c r="L108">
-        <v>9739</v>
+        <v>9661</v>
       </c>
       <c r="M108">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="N108">
-        <v>18626</v>
+        <v>18515</v>
       </c>
       <c r="O108">
-        <v>2931</v>
+        <v>2919</v>
       </c>
       <c r="P108">
-        <v>19466</v>
+        <v>19374</v>
       </c>
       <c r="Q108">
-        <v>11403</v>
+        <v>11350</v>
       </c>
       <c r="R108">
-        <v>47935</v>
+        <v>46077</v>
       </c>
       <c r="S108">
-        <v>5616</v>
+        <v>5613</v>
       </c>
       <c r="T108">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="U108">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="W108">
-        <v>10016</v>
+        <v>9986</v>
       </c>
       <c r="X108">
-        <v>25812</v>
+        <v>25457</v>
       </c>
       <c r="Y108">
-        <v>8779</v>
+        <v>8677</v>
       </c>
       <c r="Z108">
-        <v>25565</v>
+        <v>25526</v>
       </c>
       <c r="AA108">
-        <v>10609</v>
+        <v>10574</v>
       </c>
       <c r="AC108">
-        <v>8413</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="109">
@@ -7539,37 +7539,37 @@
         </is>
       </c>
       <c r="C109">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D109">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F109">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="G109">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H109">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="I109">
-        <v>6193</v>
+        <v>6180</v>
       </c>
       <c r="J109">
         <v>347</v>
       </c>
       <c r="K109">
-        <v>1765</v>
+        <v>1717</v>
       </c>
       <c r="L109">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="M109">
         <v>186</v>
       </c>
       <c r="N109">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="O109">
         <v>429</v>
@@ -7578,34 +7578,34 @@
         <v>1909</v>
       </c>
       <c r="Q109">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R109">
-        <v>4432</v>
+        <v>4338</v>
       </c>
       <c r="S109">
         <v>162</v>
       </c>
       <c r="T109">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U109">
         <v>88</v>
       </c>
       <c r="W109">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="X109">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="Y109">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="Z109">
         <v>4066</v>
       </c>
       <c r="AA109">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="AC109">
         <v>352</v>
@@ -7623,70 +7623,70 @@
         </is>
       </c>
       <c r="C110">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="D110">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F110">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G110">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H110">
-        <v>1723</v>
+        <v>1690</v>
       </c>
       <c r="I110">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="J110">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K110">
-        <v>1504</v>
+        <v>1443</v>
       </c>
       <c r="L110">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="M110">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N110">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="O110">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P110">
         <v>1719</v>
       </c>
       <c r="Q110">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="R110">
-        <v>4627</v>
+        <v>4565</v>
       </c>
       <c r="S110">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="T110">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U110">
         <v>104</v>
       </c>
       <c r="W110">
-        <v>2645</v>
+        <v>2636</v>
       </c>
       <c r="X110">
-        <v>3943</v>
+        <v>3917</v>
       </c>
       <c r="Y110">
-        <v>3447</v>
+        <v>3365</v>
       </c>
       <c r="Z110">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="AA110">
         <v>1354</v>
@@ -7708,7 +7708,7 @@
         <v>3</v>
       </c>
       <c r="AB111">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="AC111">
         <v>30</v>
@@ -7726,22 +7726,22 @@
         </is>
       </c>
       <c r="C112">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="D112">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F112">
         <v>623</v>
       </c>
       <c r="G112">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H112">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="I112">
-        <v>6741</v>
+        <v>6730</v>
       </c>
       <c r="J112">
         <v>564</v>
@@ -7750,49 +7750,49 @@
         <v>828</v>
       </c>
       <c r="L112">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M112">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N112">
-        <v>11836</v>
+        <v>11835</v>
       </c>
       <c r="O112">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P112">
-        <v>4621</v>
+        <v>4610</v>
       </c>
       <c r="Q112">
-        <v>4179</v>
+        <v>4169</v>
       </c>
       <c r="R112">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="S112">
         <v>965</v>
       </c>
       <c r="T112">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="U112">
         <v>209</v>
       </c>
       <c r="W112">
-        <v>3441</v>
+        <v>3435</v>
       </c>
       <c r="X112">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="Y112">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="Z112">
         <v>901</v>
       </c>
       <c r="AA112">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="AC112">
         <v>1094</v>
@@ -7810,73 +7810,73 @@
         </is>
       </c>
       <c r="C113">
-        <v>8502</v>
+        <v>8477</v>
       </c>
       <c r="D113">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="F113">
         <v>429</v>
       </c>
       <c r="G113">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="H113">
-        <v>6973</v>
+        <v>6962</v>
       </c>
       <c r="I113">
-        <v>9453</v>
+        <v>9446</v>
       </c>
       <c r="J113">
         <v>960</v>
       </c>
       <c r="K113">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L113">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="M113">
         <v>2053</v>
       </c>
       <c r="N113">
-        <v>10794</v>
+        <v>10793</v>
       </c>
       <c r="O113">
         <v>704</v>
       </c>
       <c r="P113">
-        <v>2716</v>
+        <v>2703</v>
       </c>
       <c r="Q113">
-        <v>6255</v>
+        <v>6246</v>
       </c>
       <c r="R113">
-        <v>25526</v>
+        <v>25508</v>
       </c>
       <c r="S113">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="T113">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="U113">
         <v>275</v>
       </c>
       <c r="W113">
-        <v>5773</v>
+        <v>5764</v>
       </c>
       <c r="X113">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="Y113">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="Z113">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="AA113">
-        <v>22443</v>
+        <v>22442</v>
       </c>
       <c r="AC113">
         <v>3817</v>
@@ -7910,10 +7910,10 @@
         </is>
       </c>
       <c r="C115">
-        <v>3497</v>
+        <v>3491</v>
       </c>
       <c r="D115">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F115">
         <v>1641</v>
@@ -7922,7 +7922,7 @@
         <v>1293</v>
       </c>
       <c r="H115">
-        <v>7001</v>
+        <v>6999</v>
       </c>
       <c r="I115">
         <v>1442</v>
@@ -7931,7 +7931,7 @@
         <v>883</v>
       </c>
       <c r="K115">
-        <v>5547</v>
+        <v>5546</v>
       </c>
       <c r="L115">
         <v>3760</v>
@@ -7946,19 +7946,19 @@
         <v>1294</v>
       </c>
       <c r="P115">
-        <v>8833</v>
+        <v>8832</v>
       </c>
       <c r="Q115">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="R115">
-        <v>10600</v>
+        <v>10597</v>
       </c>
       <c r="S115">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="T115">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U115">
         <v>314</v>
@@ -7967,13 +7967,13 @@
         <v>2347</v>
       </c>
       <c r="X115">
-        <v>7497</v>
+        <v>7496</v>
       </c>
       <c r="Y115">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="Z115">
-        <v>9615</v>
+        <v>9612</v>
       </c>
       <c r="AA115">
         <v>2933</v>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="V116">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="X116">
         <v>7</v>
@@ -8002,16 +8002,16 @@
         </is>
       </c>
       <c r="E117">
-        <v>2077</v>
+        <v>1924</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W117">
         <v>4</v>
       </c>
       <c r="AB117">
-        <v>4096</v>
+        <v>2970</v>
       </c>
       <c r="AC117">
         <v>5</v>
@@ -8029,76 +8029,76 @@
         </is>
       </c>
       <c r="C118">
-        <v>4392</v>
+        <v>3669</v>
       </c>
       <c r="D118">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="F118">
-        <v>1074</v>
+        <v>960</v>
       </c>
       <c r="G118">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H118">
-        <v>4336</v>
+        <v>4285</v>
       </c>
       <c r="I118">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J118">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K118">
-        <v>27917</v>
+        <v>24999</v>
       </c>
       <c r="L118">
-        <v>2471</v>
+        <v>2452</v>
       </c>
       <c r="M118">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="N118">
-        <v>9424</v>
+        <v>9157</v>
       </c>
       <c r="O118">
-        <v>785</v>
+        <v>644</v>
       </c>
       <c r="P118">
-        <v>5630</v>
+        <v>5414</v>
       </c>
       <c r="Q118">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="R118">
-        <v>14759</v>
+        <v>13752</v>
       </c>
       <c r="S118">
-        <v>1026</v>
+        <v>955</v>
       </c>
       <c r="T118">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="U118">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="W118">
-        <v>1972</v>
+        <v>1952</v>
       </c>
       <c r="X118">
-        <v>12651</v>
+        <v>10810</v>
       </c>
       <c r="Y118">
-        <v>3754</v>
+        <v>3690</v>
       </c>
       <c r="Z118">
-        <v>3227</v>
+        <v>2335</v>
       </c>
       <c r="AA118">
-        <v>1911</v>
+        <v>1878</v>
       </c>
       <c r="AC118">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119">
@@ -8113,73 +8113,73 @@
         </is>
       </c>
       <c r="C119">
-        <v>4392</v>
+        <v>2992</v>
       </c>
       <c r="D119">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F119">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="G119">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H119">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I119">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J119">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="K119">
-        <v>4854</v>
+        <v>3812</v>
       </c>
       <c r="L119">
-        <v>1447</v>
+        <v>1389</v>
       </c>
       <c r="M119">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="N119">
-        <v>4240</v>
+        <v>4080</v>
       </c>
       <c r="O119">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="P119">
-        <v>4512</v>
+        <v>4363</v>
       </c>
       <c r="R119">
-        <v>4066</v>
+        <v>3482</v>
       </c>
       <c r="S119">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="T119">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U119">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="W119">
-        <v>965</v>
+        <v>920</v>
       </c>
       <c r="X119">
-        <v>2026</v>
+        <v>1704</v>
       </c>
       <c r="Y119">
-        <v>1718</v>
+        <v>1587</v>
       </c>
       <c r="Z119">
-        <v>1517</v>
+        <v>1184</v>
       </c>
       <c r="AA119">
-        <v>1210</v>
+        <v>1103</v>
       </c>
       <c r="AC119">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120">
@@ -8194,73 +8194,73 @@
         </is>
       </c>
       <c r="C120">
-        <v>2659</v>
+        <v>1840</v>
       </c>
       <c r="D120">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F120">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G120">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H120">
-        <v>3792</v>
+        <v>3380</v>
       </c>
       <c r="I120">
-        <v>1682</v>
+        <v>1647</v>
       </c>
       <c r="J120">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>3550</v>
+        <v>2963</v>
       </c>
       <c r="L120">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M120">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="N120">
-        <v>1168</v>
+        <v>1112</v>
       </c>
       <c r="O120">
-        <v>1619</v>
+        <v>1326</v>
       </c>
       <c r="P120">
-        <v>2388</v>
+        <v>2261</v>
       </c>
       <c r="Q120">
-        <v>7503</v>
+        <v>7257</v>
       </c>
       <c r="R120">
-        <v>2533</v>
+        <v>2155</v>
       </c>
       <c r="S120">
-        <v>2129</v>
+        <v>1730</v>
       </c>
       <c r="T120">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="U120">
         <v>4</v>
       </c>
       <c r="W120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X120">
-        <v>20268</v>
+        <v>15932</v>
       </c>
       <c r="Y120">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="Z120">
-        <v>50673</v>
+        <v>30702</v>
       </c>
       <c r="AA120">
-        <v>1085</v>
+        <v>1023</v>
       </c>
       <c r="AC120">
         <v>51</v>
@@ -8276,10 +8276,10 @@
         <v>172</v>
       </c>
       <c r="Q121">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB121">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AC121">
         <v>5</v>
@@ -8297,34 +8297,34 @@
         </is>
       </c>
       <c r="C122">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D122">
         <v>44</v>
       </c>
       <c r="G122">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H122">
         <v>381</v>
       </c>
       <c r="I122">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J122">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K122">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L122">
         <v>65</v>
       </c>
       <c r="M122">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N122">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="O122">
         <v>75</v>
@@ -8336,31 +8336,31 @@
         <v>7</v>
       </c>
       <c r="R122">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S122">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="T122">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U122">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W122">
         <v>4</v>
       </c>
       <c r="X122">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="Y122">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z122">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AA122">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="AC122">
         <v>459</v>
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D123">
         <v>10</v>
@@ -8390,7 +8390,7 @@
         <v>13</v>
       </c>
       <c r="H123">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I123">
         <v>101</v>
@@ -8399,37 +8399,37 @@
         <v>55</v>
       </c>
       <c r="K123">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="L123">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M123">
         <v>21</v>
       </c>
       <c r="N123">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="O123">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P123">
         <v>304</v>
       </c>
       <c r="R123">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="S123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U123">
         <v>11</v>
       </c>
       <c r="W123">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X123">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y123">
         <v>665</v>
@@ -8438,7 +8438,7 @@
         <v>70</v>
       </c>
       <c r="AA123">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC123">
         <v>12</v>
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="E124">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="W124">
         <v>2</v>
@@ -8472,25 +8472,25 @@
         </is>
       </c>
       <c r="D125">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y125">
-        <v>4728</v>
+        <v>4719</v>
       </c>
       <c r="Z125">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AC125">
         <v>21</v>
@@ -8520,13 +8520,13 @@
         <v>1</v>
       </c>
       <c r="S126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y126">
         <v>26</v>
       </c>
       <c r="Z126">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AC126">
         <v>21</v>
@@ -8544,31 +8544,31 @@
         </is>
       </c>
       <c r="D127">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G127">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
       <c r="O127">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S127">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="U127">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X127">
-        <v>1657</v>
+        <v>1323</v>
       </c>
       <c r="Y127">
-        <v>2339</v>
+        <v>2331</v>
       </c>
       <c r="Z127">
-        <v>12119</v>
+        <v>8064</v>
       </c>
       <c r="AC127">
         <v>59</v>
@@ -8617,10 +8617,10 @@
         <v>18</v>
       </c>
       <c r="V129">
-        <v>3231</v>
+        <v>3222</v>
       </c>
       <c r="W129">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AC129">
         <v>5</v>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="E130">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="I130">
         <v>16</v>
@@ -8645,7 +8645,7 @@
         <v>11</v>
       </c>
       <c r="AB130">
-        <v>3526</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="131">
@@ -8660,73 +8660,73 @@
         </is>
       </c>
       <c r="C131">
-        <v>6870</v>
+        <v>6851</v>
       </c>
       <c r="D131">
-        <v>1942</v>
+        <v>1926</v>
       </c>
       <c r="F131">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="G131">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="H131">
-        <v>6451</v>
+        <v>6447</v>
       </c>
       <c r="I131">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="J131">
         <v>1705</v>
       </c>
       <c r="K131">
-        <v>3028</v>
+        <v>2985</v>
       </c>
       <c r="L131">
-        <v>4470</v>
+        <v>4456</v>
       </c>
       <c r="M131">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="N131">
-        <v>9044</v>
+        <v>8988</v>
       </c>
       <c r="O131">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P131">
-        <v>8257</v>
+        <v>8253</v>
       </c>
       <c r="Q131">
-        <v>3061</v>
+        <v>3054</v>
       </c>
       <c r="R131">
-        <v>16589</v>
+        <v>16422</v>
       </c>
       <c r="S131">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="T131">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="U131">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W131">
-        <v>2831</v>
+        <v>2818</v>
       </c>
       <c r="X131">
-        <v>12579</v>
+        <v>12557</v>
       </c>
       <c r="Y131">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="Z131">
-        <v>11761</v>
+        <v>11734</v>
       </c>
       <c r="AA131">
-        <v>6597</v>
+        <v>6575</v>
       </c>
       <c r="AC131">
         <v>3965</v>
@@ -8744,73 +8744,73 @@
         </is>
       </c>
       <c r="C132">
-        <v>5945</v>
+        <v>5921</v>
       </c>
       <c r="D132">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F132">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G132">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H132">
-        <v>7719</v>
+        <v>7711</v>
       </c>
       <c r="I132">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="J132">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K132">
-        <v>2389</v>
+        <v>2363</v>
       </c>
       <c r="L132">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="M132">
         <v>507</v>
       </c>
       <c r="N132">
-        <v>4633</v>
+        <v>4612</v>
       </c>
       <c r="O132">
         <v>646</v>
       </c>
       <c r="P132">
-        <v>5539</v>
+        <v>5533</v>
       </c>
       <c r="Q132">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="R132">
-        <v>9872</v>
+        <v>9731</v>
       </c>
       <c r="S132">
         <v>1118</v>
       </c>
       <c r="T132">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U132">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W132">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="X132">
-        <v>7263</v>
+        <v>7256</v>
       </c>
       <c r="Y132">
         <v>2070</v>
       </c>
       <c r="Z132">
-        <v>3855</v>
+        <v>3849</v>
       </c>
       <c r="AA132">
-        <v>4053</v>
+        <v>4048</v>
       </c>
       <c r="AC132">
         <v>1913</v>
@@ -8828,55 +8828,55 @@
         </is>
       </c>
       <c r="C133">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D133">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F133">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G133">
         <v>296</v>
       </c>
       <c r="H133">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="I133">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="J133">
         <v>381</v>
       </c>
       <c r="K133">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="L133">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M133">
         <v>180</v>
       </c>
       <c r="N133">
-        <v>2499</v>
+        <v>2487</v>
       </c>
       <c r="O133">
         <v>178</v>
       </c>
       <c r="P133">
-        <v>3409</v>
+        <v>3403</v>
       </c>
       <c r="Q133">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="R133">
-        <v>4124</v>
+        <v>4060</v>
       </c>
       <c r="S133">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T133">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="U133">
         <v>34</v>
@@ -8885,13 +8885,13 @@
         <v>664</v>
       </c>
       <c r="X133">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="Y133">
         <v>1590</v>
       </c>
       <c r="Z133">
-        <v>2996</v>
+        <v>2983</v>
       </c>
       <c r="AA133">
         <v>1700</v>
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E134">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="AB134">
-        <v>6374</v>
+        <v>6360</v>
       </c>
       <c r="AC134">
         <v>11</v>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D135">
         <v>476</v>
@@ -8946,7 +8946,7 @@
         <v>734</v>
       </c>
       <c r="H135">
-        <v>6621</v>
+        <v>6616</v>
       </c>
       <c r="I135">
         <v>376</v>
@@ -8955,7 +8955,7 @@
         <v>627</v>
       </c>
       <c r="K135">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="L135">
         <v>1432</v>
@@ -8964,43 +8964,43 @@
         <v>349</v>
       </c>
       <c r="N135">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="O135">
         <v>541</v>
       </c>
       <c r="P135">
-        <v>6466</v>
+        <v>6463</v>
       </c>
       <c r="Q135">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R135">
-        <v>8783</v>
+        <v>8701</v>
       </c>
       <c r="S135">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="T135">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U135">
         <v>173</v>
       </c>
       <c r="W135">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="X135">
-        <v>5190</v>
+        <v>5185</v>
       </c>
       <c r="Y135">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="Z135">
-        <v>7265</v>
+        <v>7253</v>
       </c>
       <c r="AA135">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="AC135">
         <v>2054</v>
@@ -9018,28 +9018,28 @@
         </is>
       </c>
       <c r="C136">
-        <v>5491</v>
+        <v>5478</v>
       </c>
       <c r="D136">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F136">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G136">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="H136">
-        <v>10162</v>
+        <v>10159</v>
       </c>
       <c r="I136">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="J136">
         <v>329</v>
       </c>
       <c r="K136">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="L136">
         <v>805</v>
@@ -9048,25 +9048,25 @@
         <v>354</v>
       </c>
       <c r="N136">
-        <v>3227</v>
+        <v>3212</v>
       </c>
       <c r="O136">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="P136">
-        <v>8265</v>
+        <v>8258</v>
       </c>
       <c r="Q136">
         <v>240</v>
       </c>
       <c r="R136">
-        <v>9652</v>
+        <v>9596</v>
       </c>
       <c r="S136">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="T136">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U136">
         <v>176</v>
@@ -9075,16 +9075,16 @@
         <v>534</v>
       </c>
       <c r="X136">
-        <v>7295</v>
+        <v>7278</v>
       </c>
       <c r="Y136">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="Z136">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="AA136">
-        <v>2615</v>
+        <v>2609</v>
       </c>
       <c r="AC136">
         <v>3342</v>
@@ -9102,19 +9102,19 @@
         </is>
       </c>
       <c r="C137">
-        <v>7320</v>
+        <v>7297</v>
       </c>
       <c r="D137">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F137">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G137">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H137">
-        <v>14582</v>
+        <v>14578</v>
       </c>
       <c r="I137">
         <v>2149</v>
@@ -9123,55 +9123,55 @@
         <v>1335</v>
       </c>
       <c r="K137">
-        <v>2974</v>
+        <v>2935</v>
       </c>
       <c r="L137">
         <v>2542</v>
       </c>
       <c r="M137">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N137">
-        <v>5372</v>
+        <v>5347</v>
       </c>
       <c r="O137">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="P137">
-        <v>6343</v>
+        <v>6339</v>
       </c>
       <c r="Q137">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="R137">
-        <v>11578</v>
+        <v>11450</v>
       </c>
       <c r="S137">
         <v>2098</v>
       </c>
       <c r="T137">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U137">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W137">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="X137">
-        <v>6131</v>
+        <v>6097</v>
       </c>
       <c r="Y137">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="Z137">
-        <v>9818</v>
+        <v>9804</v>
       </c>
       <c r="AA137">
-        <v>3781</v>
+        <v>3777</v>
       </c>
       <c r="AC137">
-        <v>1909</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="138">
@@ -9184,7 +9184,7 @@
         <v>274</v>
       </c>
       <c r="AB138">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="AC138">
         <v>2</v>
@@ -9202,28 +9202,28 @@
         </is>
       </c>
       <c r="C139">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D139">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F139">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G139">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H139">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="I139">
         <v>254</v>
       </c>
       <c r="J139">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K139">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="L139">
         <v>288</v>
@@ -9232,43 +9232,43 @@
         <v>75</v>
       </c>
       <c r="N139">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="O139">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P139">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="Q139">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R139">
-        <v>5090</v>
+        <v>5021</v>
       </c>
       <c r="S139">
         <v>499</v>
       </c>
       <c r="T139">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U139">
         <v>28</v>
       </c>
       <c r="W139">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X139">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="Y139">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Z139">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AA139">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC139">
         <v>263</v>
@@ -9286,10 +9286,10 @@
         </is>
       </c>
       <c r="C140">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D140">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F140">
         <v>118</v>
@@ -9298,7 +9298,7 @@
         <v>133</v>
       </c>
       <c r="H140">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="I140">
         <v>317</v>
@@ -9307,10 +9307,10 @@
         <v>138</v>
       </c>
       <c r="K140">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L140">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M140">
         <v>73</v>
@@ -9322,13 +9322,13 @@
         <v>108</v>
       </c>
       <c r="P140">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Q140">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R140">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="S140">
         <v>218</v>
@@ -9343,10 +9343,10 @@
         <v>319</v>
       </c>
       <c r="X140">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Y140">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Z140">
         <v>271</v>
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="AB141">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AC141">
         <v>208</v>
@@ -9392,55 +9392,55 @@
         </is>
       </c>
       <c r="C142">
-        <v>5249</v>
+        <v>5244</v>
       </c>
       <c r="D142">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F142">
         <v>964</v>
       </c>
       <c r="G142">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H142">
-        <v>9680</v>
+        <v>9676</v>
       </c>
       <c r="I142">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="J142">
         <v>642</v>
       </c>
       <c r="K142">
-        <v>3056</v>
+        <v>3029</v>
       </c>
       <c r="L142">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="M142">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N142">
-        <v>3973</v>
+        <v>3961</v>
       </c>
       <c r="O142">
         <v>804</v>
       </c>
       <c r="P142">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="Q142">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R142">
-        <v>9460</v>
+        <v>9396</v>
       </c>
       <c r="S142">
         <v>1141</v>
       </c>
       <c r="T142">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="U142">
         <v>226</v>
@@ -9449,16 +9449,16 @@
         <v>1663</v>
       </c>
       <c r="X142">
-        <v>5123</v>
+        <v>5116</v>
       </c>
       <c r="Y142">
         <v>2374</v>
       </c>
       <c r="Z142">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="AA142">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="AC142">
         <v>1978</v>
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D143">
         <v>222</v>
@@ -9485,10 +9485,10 @@
         <v>321</v>
       </c>
       <c r="G143">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H143">
-        <v>4800</v>
+        <v>4797</v>
       </c>
       <c r="I143">
         <v>133</v>
@@ -9497,7 +9497,7 @@
         <v>197</v>
       </c>
       <c r="K143">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L143">
         <v>597</v>
@@ -9518,7 +9518,7 @@
         <v>895</v>
       </c>
       <c r="R143">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="S143">
         <v>275</v>
@@ -9530,7 +9530,7 @@
         <v>22</v>
       </c>
       <c r="W143">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X143">
         <v>861</v>
@@ -9555,13 +9555,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="W144">
         <v>1</v>
       </c>
       <c r="AB144">
-        <v>2987</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="145">
@@ -9576,52 +9576,52 @@
         </is>
       </c>
       <c r="C145">
-        <v>2037</v>
+        <v>2012</v>
       </c>
       <c r="D145">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F145">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="G145">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H145">
-        <v>2612</v>
+        <v>2601</v>
       </c>
       <c r="I145">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J145">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K145">
-        <v>3277</v>
+        <v>3056</v>
       </c>
       <c r="L145">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="M145">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N145">
-        <v>4395</v>
+        <v>4308</v>
       </c>
       <c r="O145">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="P145">
-        <v>4452</v>
+        <v>4418</v>
       </c>
       <c r="Q145">
-        <v>2059</v>
+        <v>2046</v>
       </c>
       <c r="R145">
-        <v>8007</v>
+        <v>7702</v>
       </c>
       <c r="S145">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="T145">
         <v>114</v>
@@ -9630,13 +9630,13 @@
         <v>212</v>
       </c>
       <c r="W145">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X145">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="Y145">
-        <v>2319</v>
+        <v>2307</v>
       </c>
       <c r="Z145">
         <v>4470</v>
@@ -9660,37 +9660,37 @@
         </is>
       </c>
       <c r="C146">
-        <v>2363</v>
+        <v>2350</v>
       </c>
       <c r="D146">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F146">
         <v>120</v>
       </c>
       <c r="G146">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H146">
-        <v>3959</v>
+        <v>3952</v>
       </c>
       <c r="I146">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J146">
         <v>435</v>
       </c>
       <c r="K146">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="L146">
         <v>380</v>
       </c>
       <c r="M146">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N146">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="O146">
         <v>300</v>
@@ -9699,16 +9699,16 @@
         <v>1828</v>
       </c>
       <c r="Q146">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R146">
-        <v>4800</v>
+        <v>4749</v>
       </c>
       <c r="S146">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="T146">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U146">
         <v>238</v>
@@ -9717,19 +9717,19 @@
         <v>383</v>
       </c>
       <c r="X146">
-        <v>3819</v>
+        <v>3813</v>
       </c>
       <c r="Y146">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z146">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="AA146">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AC146">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="147">
@@ -9744,49 +9744,49 @@
         </is>
       </c>
       <c r="C147">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D147">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F147">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G147">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H147">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="I147">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J147">
         <v>168</v>
       </c>
       <c r="K147">
-        <v>1020</v>
+        <v>981</v>
       </c>
       <c r="L147">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M147">
         <v>94</v>
       </c>
       <c r="N147">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="O147">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P147">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="Q147">
         <v>154</v>
       </c>
       <c r="R147">
-        <v>6119</v>
+        <v>6022</v>
       </c>
       <c r="S147">
         <v>1263</v>
@@ -9798,19 +9798,19 @@
         <v>161</v>
       </c>
       <c r="W147">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="X147">
-        <v>3621</v>
+        <v>3604</v>
       </c>
       <c r="Y147">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="Z147">
-        <v>8336</v>
+        <v>8327</v>
       </c>
       <c r="AA147">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AC147">
         <v>1044</v>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D148">
         <v>186</v>
@@ -9840,7 +9840,7 @@
         <v>529</v>
       </c>
       <c r="H148">
-        <v>3465</v>
+        <v>3455</v>
       </c>
       <c r="I148">
         <v>100</v>
@@ -9849,7 +9849,7 @@
         <v>204</v>
       </c>
       <c r="K148">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L148">
         <v>99</v>
@@ -9867,10 +9867,10 @@
         <v>1791</v>
       </c>
       <c r="Q148">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R148">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="S148">
         <v>460</v>
@@ -9944,7 +9944,7 @@
         <v>507</v>
       </c>
       <c r="AB150">
-        <v>3970</v>
+        <v>3964</v>
       </c>
       <c r="AC150">
         <v>118</v>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D151">
         <v>43</v>
@@ -9971,7 +9971,7 @@
         <v>102</v>
       </c>
       <c r="G151">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -9983,7 +9983,7 @@
         <v>147</v>
       </c>
       <c r="K151">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="L151">
         <v>174</v>
@@ -10004,7 +10004,7 @@
         <v>434</v>
       </c>
       <c r="R151">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S151">
         <v>52</v>
@@ -10016,10 +10016,10 @@
         <v>21</v>
       </c>
       <c r="W151">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X151">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Y151">
         <v>364</v>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D152">
         <v>208</v>
@@ -10088,7 +10088,7 @@
         <v>81</v>
       </c>
       <c r="R152">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="S152">
         <v>135</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D153">
         <v>209</v>
@@ -10151,7 +10151,7 @@
         <v>142</v>
       </c>
       <c r="K153">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L153">
         <v>291</v>
@@ -10169,10 +10169,10 @@
         <v>951</v>
       </c>
       <c r="Q153">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="R153">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="S153">
         <v>129</v>
@@ -10214,7 +10214,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D154">
         <v>209</v>
@@ -10235,10 +10235,10 @@
         <v>150</v>
       </c>
       <c r="K154">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L154">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M154">
         <v>115</v>
@@ -10256,13 +10256,13 @@
         <v>106</v>
       </c>
       <c r="R154">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="S154">
         <v>368</v>
       </c>
       <c r="T154">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U154">
         <v>25</v>
@@ -10271,13 +10271,13 @@
         <v>206</v>
       </c>
       <c r="X154">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="Y154">
         <v>680</v>
       </c>
       <c r="Z154">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="AA154">
         <v>608</v>
@@ -10298,19 +10298,19 @@
         </is>
       </c>
       <c r="C155">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D155">
         <v>158</v>
       </c>
       <c r="F155">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G155">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H155">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="I155">
         <v>124</v>
@@ -10319,16 +10319,16 @@
         <v>635</v>
       </c>
       <c r="K155">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="L155">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M155">
         <v>70</v>
       </c>
       <c r="N155">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="O155">
         <v>837</v>
@@ -10337,13 +10337,13 @@
         <v>3161</v>
       </c>
       <c r="Q155">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R155">
-        <v>4829</v>
+        <v>4773</v>
       </c>
       <c r="S155">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="T155">
         <v>13</v>
@@ -10355,16 +10355,16 @@
         <v>169</v>
       </c>
       <c r="X155">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Y155">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="Z155">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="AA155">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AC155">
         <v>866</v>
@@ -10382,10 +10382,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D156">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F156">
         <v>146</v>
@@ -10394,34 +10394,34 @@
         <v>269</v>
       </c>
       <c r="H156">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="I156">
         <v>1034</v>
       </c>
       <c r="J156">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K156">
-        <v>933</v>
+        <v>908</v>
       </c>
       <c r="L156">
         <v>521</v>
       </c>
       <c r="M156">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N156">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="O156">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P156">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="R156">
-        <v>2862</v>
+        <v>2841</v>
       </c>
       <c r="S156">
         <v>288</v>
@@ -10433,7 +10433,7 @@
         <v>49</v>
       </c>
       <c r="W156">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X156">
         <v>1496</v>
@@ -10445,7 +10445,7 @@
         <v>790</v>
       </c>
       <c r="AA156">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AC156">
         <v>378</v>
@@ -10463,7 +10463,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D157">
         <v>79</v>
@@ -10475,7 +10475,7 @@
         <v>166</v>
       </c>
       <c r="H157">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I157">
         <v>211</v>
@@ -10499,7 +10499,7 @@
         <v>361</v>
       </c>
       <c r="P157">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="R157">
         <v>620</v>
@@ -10517,7 +10517,7 @@
         <v>51</v>
       </c>
       <c r="X157">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Y157">
         <v>243</v>
@@ -10544,7 +10544,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D158">
         <v>304</v>
@@ -10553,13 +10553,13 @@
         <v>265</v>
       </c>
       <c r="G158">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H158">
         <v>7465</v>
       </c>
       <c r="I158">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J158">
         <v>397</v>
@@ -10577,16 +10577,16 @@
         <v>4660</v>
       </c>
       <c r="O158">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P158">
-        <v>4416</v>
+        <v>4412</v>
       </c>
       <c r="Q158">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R158">
-        <v>3379</v>
+        <v>3372</v>
       </c>
       <c r="S158">
         <v>1060</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="AB159">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="160">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D160">
         <v>375</v>
@@ -10656,7 +10656,7 @@
         <v>5</v>
       </c>
       <c r="G160">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H160">
         <v>4071</v>
@@ -10671,7 +10671,7 @@
         <v>178</v>
       </c>
       <c r="L160">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M160">
         <v>278</v>
@@ -10683,25 +10683,25 @@
         <v>256</v>
       </c>
       <c r="P160">
-        <v>14324</v>
+        <v>14323</v>
       </c>
       <c r="Q160">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="R160">
-        <v>6019</v>
+        <v>5996</v>
       </c>
       <c r="S160">
         <v>1033</v>
       </c>
       <c r="T160">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U160">
         <v>89</v>
       </c>
       <c r="W160">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="X160">
         <v>3672</v>
@@ -10716,7 +10716,7 @@
         <v>2423</v>
       </c>
       <c r="AC160">
-        <v>5542</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="161">
@@ -10726,13 +10726,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>4310</v>
+        <v>4297</v>
       </c>
       <c r="W161">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB161">
-        <v>4551</v>
+        <v>4538</v>
       </c>
       <c r="AC161">
         <v>33</v>
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D162">
         <v>106</v>
@@ -10759,7 +10759,7 @@
         <v>217</v>
       </c>
       <c r="H162">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I162">
         <v>232</v>
@@ -10795,7 +10795,7 @@
         <v>343</v>
       </c>
       <c r="T162">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U162">
         <v>63</v>
@@ -10831,73 +10831,73 @@
         </is>
       </c>
       <c r="C163">
-        <v>2356</v>
+        <v>2345</v>
       </c>
       <c r="D163">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F163">
         <v>1227</v>
       </c>
       <c r="G163">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H163">
-        <v>4739</v>
+        <v>4724</v>
       </c>
       <c r="I163">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="J163">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K163">
-        <v>4139</v>
+        <v>4095</v>
       </c>
       <c r="L163">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="M163">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N163">
-        <v>4506</v>
+        <v>4499</v>
       </c>
       <c r="O163">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P163">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="Q163">
-        <v>2455</v>
+        <v>2441</v>
       </c>
       <c r="R163">
-        <v>4472</v>
+        <v>4431</v>
       </c>
       <c r="S163">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="T163">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U163">
         <v>227</v>
       </c>
       <c r="W163">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="X163">
-        <v>6930</v>
+        <v>6879</v>
       </c>
       <c r="Y163">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="Z163">
-        <v>11640</v>
+        <v>11633</v>
       </c>
       <c r="AA163">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="AC163">
         <v>1317</v>
@@ -10915,73 +10915,73 @@
         </is>
       </c>
       <c r="C164">
-        <v>5510</v>
+        <v>5494</v>
       </c>
       <c r="D164">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="F164">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="G164">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H164">
-        <v>11349</v>
+        <v>11340</v>
       </c>
       <c r="I164">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="J164">
         <v>1895</v>
       </c>
       <c r="K164">
-        <v>5232</v>
+        <v>5199</v>
       </c>
       <c r="L164">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="M164">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N164">
         <v>8389</v>
       </c>
       <c r="O164">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="P164">
-        <v>12296</v>
+        <v>12274</v>
       </c>
       <c r="Q164">
-        <v>2844</v>
+        <v>2838</v>
       </c>
       <c r="R164">
-        <v>14250</v>
+        <v>14169</v>
       </c>
       <c r="S164">
-        <v>4258</v>
+        <v>4255</v>
       </c>
       <c r="T164">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="U164">
         <v>691</v>
       </c>
       <c r="W164">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="X164">
-        <v>10699</v>
+        <v>10683</v>
       </c>
       <c r="Y164">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="Z164">
-        <v>11234</v>
+        <v>11233</v>
       </c>
       <c r="AA164">
-        <v>5631</v>
+        <v>5626</v>
       </c>
       <c r="AC164">
         <v>4209</v>
@@ -10999,73 +10999,73 @@
         </is>
       </c>
       <c r="C165">
-        <v>3500</v>
+        <v>3476</v>
       </c>
       <c r="D165">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F165">
         <v>431</v>
       </c>
       <c r="G165">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H165">
-        <v>4369</v>
+        <v>4363</v>
       </c>
       <c r="I165">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="J165">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K165">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="L165">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="M165">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="N165">
         <v>4526</v>
       </c>
       <c r="O165">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="P165">
-        <v>8610</v>
+        <v>8591</v>
       </c>
       <c r="Q165">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="R165">
-        <v>5006</v>
+        <v>4939</v>
       </c>
       <c r="S165">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="T165">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U165">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W165">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="X165">
-        <v>5219</v>
+        <v>5204</v>
       </c>
       <c r="Y165">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="Z165">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="AA165">
-        <v>3258</v>
+        <v>3249</v>
       </c>
       <c r="AC165">
         <v>1862</v>
@@ -11095,7 +11095,7 @@
         <v>12</v>
       </c>
       <c r="H166">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I166">
         <v>104</v>
@@ -11125,7 +11125,7 @@
         <v>51</v>
       </c>
       <c r="R166">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S166">
         <v>73</v>
@@ -11165,7 +11165,7 @@
         <v>6</v>
       </c>
       <c r="V167">
-        <v>2801</v>
+        <v>2792</v>
       </c>
       <c r="W167">
         <v>10</v>
@@ -11199,7 +11199,7 @@
         <v>23</v>
       </c>
       <c r="AB168">
-        <v>3132</v>
+        <v>3114</v>
       </c>
       <c r="AC168">
         <v>340</v>
@@ -11217,76 +11217,76 @@
         </is>
       </c>
       <c r="C169">
-        <v>11901</v>
+        <v>11810</v>
       </c>
       <c r="D169">
-        <v>3732</v>
+        <v>3714</v>
       </c>
       <c r="F169">
-        <v>5851</v>
+        <v>5837</v>
       </c>
       <c r="G169">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="H169">
-        <v>18425</v>
+        <v>18367</v>
       </c>
       <c r="I169">
-        <v>4912</v>
+        <v>4868</v>
       </c>
       <c r="J169">
         <v>1421</v>
       </c>
       <c r="K169">
-        <v>6055</v>
+        <v>5911</v>
       </c>
       <c r="L169">
-        <v>8229</v>
+        <v>8217</v>
       </c>
       <c r="M169">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="N169">
-        <v>28749</v>
+        <v>28748</v>
       </c>
       <c r="O169">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="P169">
-        <v>9054</v>
+        <v>9032</v>
       </c>
       <c r="Q169">
-        <v>2895</v>
+        <v>2878</v>
       </c>
       <c r="R169">
-        <v>34928</v>
+        <v>34806</v>
       </c>
       <c r="S169">
-        <v>3983</v>
+        <v>3978</v>
       </c>
       <c r="T169">
-        <v>2198</v>
+        <v>2122</v>
       </c>
       <c r="U169">
         <v>561</v>
       </c>
       <c r="W169">
-        <v>4674</v>
+        <v>4662</v>
       </c>
       <c r="X169">
-        <v>8805</v>
+        <v>8782</v>
       </c>
       <c r="Y169">
-        <v>9768</v>
+        <v>9736</v>
       </c>
       <c r="Z169">
-        <v>5889</v>
+        <v>5885</v>
       </c>
       <c r="AA169">
-        <v>4506</v>
+        <v>4489</v>
       </c>
       <c r="AC169">
-        <v>3056</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="170">
@@ -11304,31 +11304,31 @@
         <v>322</v>
       </c>
       <c r="D170">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F170">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G170">
         <v>36</v>
       </c>
       <c r="H170">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I170">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J170">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K170">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="L170">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M170">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N170">
         <v>369</v>
@@ -11337,40 +11337,40 @@
         <v>59</v>
       </c>
       <c r="P170">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="Q170">
         <v>443</v>
       </c>
       <c r="R170">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="S170">
         <v>457</v>
       </c>
       <c r="T170">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U170">
         <v>84</v>
       </c>
       <c r="W170">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X170">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Y170">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="Z170">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AA170">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC170">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171">
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="E171">
-        <v>1046</v>
+        <v>969</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="AB171">
-        <v>1519</v>
+        <v>381</v>
       </c>
       <c r="AC171">
         <v>1</v>
@@ -11407,76 +11407,76 @@
         </is>
       </c>
       <c r="C172">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="D172">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F172">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="G172">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H172">
-        <v>2176</v>
+        <v>1761</v>
       </c>
       <c r="I172">
-        <v>1403</v>
+        <v>1310</v>
       </c>
       <c r="J172">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K172">
-        <v>2484</v>
+        <v>2448</v>
       </c>
       <c r="L172">
-        <v>2460</v>
+        <v>2373</v>
       </c>
       <c r="M172">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N172">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O172">
-        <v>965</v>
+        <v>784</v>
       </c>
       <c r="P172">
-        <v>7427</v>
+        <v>7365</v>
       </c>
       <c r="Q172">
-        <v>1410</v>
+        <v>979</v>
       </c>
       <c r="R172">
-        <v>13014</v>
+        <v>12609</v>
       </c>
       <c r="S172">
-        <v>694</v>
+        <v>631</v>
       </c>
       <c r="T172">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U172">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="W172">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="X172">
-        <v>1514</v>
+        <v>1430</v>
       </c>
       <c r="Y172">
-        <v>1110</v>
+        <v>1027</v>
       </c>
       <c r="Z172">
-        <v>8926</v>
+        <v>5220</v>
       </c>
       <c r="AA172">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AC172">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="E173">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="N173">
         <v>1</v>
@@ -11495,7 +11495,7 @@
         <v>4</v>
       </c>
       <c r="AB173">
-        <v>2242</v>
+        <v>2232</v>
       </c>
       <c r="AC173">
         <v>16</v>
@@ -11513,73 +11513,73 @@
         </is>
       </c>
       <c r="C174">
-        <v>2079</v>
+        <v>2069</v>
       </c>
       <c r="D174">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F174">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G174">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H174">
-        <v>2559</v>
+        <v>2552</v>
       </c>
       <c r="I174">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="J174">
         <v>208</v>
       </c>
       <c r="K174">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L174">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="M174">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N174">
         <v>2088</v>
       </c>
       <c r="O174">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P174">
-        <v>4934</v>
+        <v>4926</v>
       </c>
       <c r="Q174">
-        <v>1922</v>
+        <v>1888</v>
       </c>
       <c r="R174">
-        <v>3200</v>
+        <v>3167</v>
       </c>
       <c r="S174">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T174">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="U174">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W174">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X174">
-        <v>2293</v>
+        <v>2276</v>
       </c>
       <c r="Y174">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Z174">
-        <v>5555</v>
+        <v>5532</v>
       </c>
       <c r="AA174">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC174">
         <v>1356</v>
@@ -11597,34 +11597,34 @@
         </is>
       </c>
       <c r="C175">
-        <v>4370</v>
+        <v>4346</v>
       </c>
       <c r="D175">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F175">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G175">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="H175">
-        <v>6395</v>
+        <v>6388</v>
       </c>
       <c r="I175">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="J175">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K175">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="L175">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="M175">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N175">
         <v>474</v>
@@ -11636,34 +11636,34 @@
         <v>2153</v>
       </c>
       <c r="Q175">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="R175">
-        <v>2794</v>
+        <v>2785</v>
       </c>
       <c r="S175">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="T175">
         <v>39</v>
       </c>
       <c r="U175">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="W175">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="X175">
-        <v>4317</v>
+        <v>4303</v>
       </c>
       <c r="Y175">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="Z175">
-        <v>5568</v>
+        <v>5540</v>
       </c>
       <c r="AA175">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AC175">
         <v>1051</v>
@@ -11681,73 +11681,73 @@
         </is>
       </c>
       <c r="C176">
-        <v>3810</v>
+        <v>3793</v>
       </c>
       <c r="D176">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F176">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G176">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H176">
-        <v>10793</v>
+        <v>10750</v>
       </c>
       <c r="I176">
-        <v>4891</v>
+        <v>4874</v>
       </c>
       <c r="J176">
         <v>506</v>
       </c>
       <c r="K176">
-        <v>1152</v>
+        <v>1121</v>
       </c>
       <c r="L176">
-        <v>2059</v>
+        <v>2046</v>
       </c>
       <c r="M176">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N176">
-        <v>7934</v>
+        <v>7931</v>
       </c>
       <c r="O176">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P176">
         <v>4263</v>
       </c>
       <c r="Q176">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="R176">
-        <v>9318</v>
+        <v>9289</v>
       </c>
       <c r="S176">
-        <v>1482</v>
+        <v>1460</v>
       </c>
       <c r="T176">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U176">
         <v>211</v>
       </c>
       <c r="W176">
-        <v>6996</v>
+        <v>6992</v>
       </c>
       <c r="X176">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="Y176">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="Z176">
-        <v>3172</v>
+        <v>3146</v>
       </c>
       <c r="AA176">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AC176">
         <v>1001</v>
@@ -11760,10 +11760,10 @@
         </is>
       </c>
       <c r="E177">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB177">
-        <v>837</v>
+        <v>793</v>
       </c>
       <c r="AC177">
         <v>1</v>
@@ -11781,73 +11781,73 @@
         </is>
       </c>
       <c r="C178">
-        <v>2725</v>
+        <v>2680</v>
       </c>
       <c r="D178">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F178">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G178">
         <v>213</v>
       </c>
       <c r="H178">
-        <v>5517</v>
+        <v>5457</v>
       </c>
       <c r="I178">
-        <v>4225</v>
+        <v>4204</v>
       </c>
       <c r="J178">
         <v>409</v>
       </c>
       <c r="K178">
-        <v>1505</v>
+        <v>1356</v>
       </c>
       <c r="L178">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="M178">
         <v>386</v>
       </c>
       <c r="N178">
-        <v>2987</v>
+        <v>2978</v>
       </c>
       <c r="O178">
         <v>222</v>
       </c>
       <c r="P178">
-        <v>3821</v>
+        <v>3816</v>
       </c>
       <c r="Q178">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="R178">
-        <v>2951</v>
+        <v>2872</v>
       </c>
       <c r="S178">
         <v>509</v>
       </c>
       <c r="T178">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="U178">
         <v>139</v>
       </c>
       <c r="W178">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="X178">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="Y178">
-        <v>2053</v>
+        <v>2035</v>
       </c>
       <c r="Z178">
         <v>513</v>
       </c>
       <c r="AA178">
-        <v>3416</v>
+        <v>3407</v>
       </c>
       <c r="AC178">
         <v>863</v>
@@ -11902,7 +11902,7 @@
         <v>39</v>
       </c>
       <c r="N180">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O180">
         <v>21</v>
@@ -11977,16 +11977,16 @@
         <v>11</v>
       </c>
       <c r="N181">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P181">
         <v>51</v>
       </c>
       <c r="Q181">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R181">
-        <v>2948</v>
+        <v>2791</v>
       </c>
       <c r="S181">
         <v>7</v>
@@ -11998,10 +11998,10 @@
         <v>9</v>
       </c>
       <c r="Y181">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="Z181">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
@@ -12011,10 +12011,10 @@
         </is>
       </c>
       <c r="E182">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="AB182">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="AC182">
         <v>5</v>
@@ -12032,10 +12032,10 @@
         </is>
       </c>
       <c r="C183">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D183">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F183">
         <v>186</v>
@@ -12047,13 +12047,13 @@
         <v>926</v>
       </c>
       <c r="I183">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J183">
         <v>496</v>
       </c>
       <c r="K183">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="L183">
         <v>688</v>
@@ -12068,25 +12068,25 @@
         <v>336</v>
       </c>
       <c r="P183">
-        <v>5683</v>
+        <v>5676</v>
       </c>
       <c r="Q183">
         <v>132</v>
       </c>
       <c r="R183">
-        <v>2981</v>
+        <v>2973</v>
       </c>
       <c r="S183">
         <v>601</v>
       </c>
       <c r="T183">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U183">
         <v>256</v>
       </c>
       <c r="W183">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X183">
         <v>843</v>
@@ -12095,13 +12095,13 @@
         <v>1220</v>
       </c>
       <c r="Z183">
-        <v>1722</v>
+        <v>1655</v>
       </c>
       <c r="AA183">
         <v>495</v>
       </c>
       <c r="AC183">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="184">
@@ -12116,76 +12116,76 @@
         </is>
       </c>
       <c r="C184">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D184">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F184">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G184">
         <v>169</v>
       </c>
       <c r="H184">
-        <v>3441</v>
+        <v>3429</v>
       </c>
       <c r="I184">
-        <v>2063</v>
+        <v>2024</v>
       </c>
       <c r="J184">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K184">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="L184">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M184">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N184">
         <v>2278</v>
       </c>
       <c r="O184">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P184">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="Q184">
-        <v>2056</v>
+        <v>2043</v>
       </c>
       <c r="R184">
-        <v>11175</v>
+        <v>11114</v>
       </c>
       <c r="S184">
         <v>1635</v>
       </c>
       <c r="T184">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U184">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W184">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="X184">
-        <v>2527</v>
+        <v>2517</v>
       </c>
       <c r="Y184">
-        <v>2164</v>
+        <v>2134</v>
       </c>
       <c r="Z184">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="AA184">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AC184">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="185">
@@ -12193,46 +12193,46 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>4011</v>
+        <v>3913</v>
       </c>
       <c r="I185">
-        <v>19947</v>
+        <v>19817</v>
       </c>
       <c r="J185">
         <v>110</v>
       </c>
       <c r="M185">
-        <v>39523</v>
+        <v>39322</v>
       </c>
       <c r="N185">
-        <v>2188</v>
+        <v>1782</v>
       </c>
       <c r="O185">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q185">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="R185">
         <v>48</v>
       </c>
       <c r="T185">
-        <v>2678</v>
+        <v>2454</v>
       </c>
       <c r="U185">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W185">
-        <v>34926</v>
+        <v>34647</v>
       </c>
       <c r="X185">
-        <v>2933</v>
+        <v>2905</v>
       </c>
       <c r="AA185">
-        <v>3589</v>
+        <v>3557</v>
       </c>
       <c r="AB185">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="AC185">
         <v>12</v>
